--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="25540" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -265,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -300,7 +300,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -308,26 +314,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,14 +339,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -355,23 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +391,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -415,16 +415,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +517,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,43 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,25 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,43 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,28 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,7 +694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +710,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,18 +755,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,19 +781,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,97 +802,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,13 +904,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -1411,7 +1411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="13">
         <v>1101</v>
       </c>
@@ -1439,8 +1439,11 @@
       <c r="I5" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="13">
         <v>1102</v>
       </c>
@@ -1468,8 +1471,11 @@
       <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="13">
         <v>1103</v>
       </c>
@@ -1497,8 +1503,11 @@
       <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="13">
         <v>2101</v>
       </c>
@@ -1526,8 +1535,11 @@
       <c r="I8" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="13">
         <v>2102</v>
       </c>
@@ -1555,8 +1567,11 @@
       <c r="I9" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="13">
         <v>2103</v>
       </c>
@@ -1583,6 +1598,9 @@
       </c>
       <c r="I10" s="13" t="s">
         <v>28</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25540" windowHeight="14520"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>钓几条鱼回来炖鱼汤</t>
   </si>
   <si>
-    <t>Fish</t>
+    <t>Collect_Fish</t>
   </si>
   <si>
     <t>Coin|200;None|1_1;</t>
@@ -110,7 +110,7 @@
     <t>村北出现一头熊，去做了它</t>
   </si>
   <si>
-    <t>Hunt_Bear</t>
+    <t>Collect_Bear</t>
   </si>
   <si>
     <t>Coin|200;None|1_2;</t>
@@ -300,6 +300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -308,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,10 +331,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,14 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,9 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,17 +416,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,96 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -565,7 +475,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +535,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,55 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,9 +668,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,54 +703,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,11 +724,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,19 +781,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,94 +802,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,19 +898,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -14,17 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
   <si>
     <t>任务ID</t>
   </si>
   <si>
-    <t>前置任务</t>
+    <t>触发类型</t>
   </si>
   <si>
     <t>后置任务</t>
   </si>
   <si>
+    <t>讲武堂等级</t>
+  </si>
+  <si>
     <t>任务标题</t>
   </si>
   <si>
@@ -37,18 +40,24 @@
     <t>任务时长（秒）</t>
   </si>
   <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>特殊奖励概率（基数10000）</t>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+  </si>
+  <si>
+    <t>事件(刷新任务状态)</t>
+  </si>
+  <si>
+    <t>完成条件类型</t>
+  </si>
+  <si>
     <t>任务参数</t>
   </si>
   <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>事件(刷新任务状态)</t>
-  </si>
-  <si>
-    <t>完成条件类型</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -61,12 +70,15 @@
     <t>TaskID</t>
   </si>
   <si>
-    <t>PreTask</t>
+    <t>TriggerType</t>
   </si>
   <si>
     <t>NextTask</t>
   </si>
   <si>
+    <t>HomeLevel</t>
+  </si>
+  <si>
     <t>TaskTitle</t>
   </si>
   <si>
@@ -79,19 +91,28 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>SpecialRewardRate</t>
+  </si>
+  <si>
+    <t>SpecialReward</t>
+  </si>
+  <si>
+    <t>TaskEvent</t>
+  </si>
+  <si>
+    <t>ConditionType</t>
+  </si>
+  <si>
     <t>ConditionValue</t>
   </si>
   <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>TaskEvent</t>
-  </si>
-  <si>
-    <t>ConditionType</t>
-  </si>
-  <si>
-    <t>砍树</t>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>砍点树</t>
   </si>
   <si>
     <t>盖房子当然要有木材，先去砍树吧。</t>
@@ -109,7 +130,7 @@
     <t>ManualFinish</t>
   </si>
   <si>
-    <t>采石</t>
+    <t>采点石</t>
   </si>
   <si>
     <t>石材也是必不可少的建材，后山有不少。</t>
@@ -118,7 +139,7 @@
     <t>Collect_QingRock</t>
   </si>
   <si>
-    <t>建造</t>
+    <t>盖个房</t>
   </si>
   <si>
     <t>壮大门派的第一步，先盖够三间屋舍。</t>
@@ -127,6 +148,9 @@
     <t>Progress_Build</t>
   </si>
   <si>
+    <t>10050;10051</t>
+  </si>
+  <si>
     <t>招募</t>
   </si>
   <si>
@@ -136,7 +160,7 @@
     <t>Collect_Fish</t>
   </si>
   <si>
-    <t>升级</t>
+    <t>讲武堂升级</t>
   </si>
   <si>
     <t>把讲武堂升到2级。</t>
@@ -152,6 +176,114 @@
   </si>
   <si>
     <t>Battle</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>伐木（1级）</t>
+  </si>
+  <si>
+    <t>村西边的乌木长得快，木质好，盖房子最合适。</t>
+  </si>
+  <si>
+    <t>Item|1002|10</t>
+  </si>
+  <si>
+    <t>Item|1002|15</t>
+  </si>
+  <si>
+    <t>Item|1002|30</t>
+  </si>
+  <si>
+    <t>采石（1级）</t>
+  </si>
+  <si>
+    <t>这种青石遍地都是，可以挖来做基地或者砌墙。</t>
+  </si>
+  <si>
+    <t>Item|1001|10</t>
+  </si>
+  <si>
+    <t>Item|1001|15</t>
+  </si>
+  <si>
+    <t>Item|1001|30</t>
+  </si>
+  <si>
+    <t>伐木（2级）</t>
+  </si>
+  <si>
+    <t>Item|1002|50</t>
+  </si>
+  <si>
+    <t>Item|1002|100</t>
+  </si>
+  <si>
+    <t>Item|1002|200</t>
+  </si>
+  <si>
+    <t>采石（2级）</t>
+  </si>
+  <si>
+    <t>Item|1001|50</t>
+  </si>
+  <si>
+    <t>Item|1001|100</t>
+  </si>
+  <si>
+    <t>Item|1001|200</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>池塘边总有野猪出没伤人，去宰了它给兄弟们加餐。</t>
+  </si>
+  <si>
+    <t>Collect_Boar</t>
+  </si>
+  <si>
+    <t>Item|1009|5</t>
+  </si>
+  <si>
+    <t>Item|1009|10</t>
+  </si>
+  <si>
+    <t>Item|1009|20</t>
+  </si>
+  <si>
+    <t>挖矿</t>
+  </si>
+  <si>
+    <t>打铁当然先要有铁，可以去后山找找看。</t>
+  </si>
+  <si>
+    <t>Collect_Iron</t>
+  </si>
+  <si>
+    <t>Item|1006|5</t>
+  </si>
+  <si>
+    <t>Item|1006|10</t>
+  </si>
+  <si>
+    <t>Item|1006|20</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>采集-钓鱼</t>
+  </si>
+  <si>
+    <t>钓几条鱼回来炖鱼汤</t>
+  </si>
+  <si>
+    <t>采集-狩猎</t>
+  </si>
+  <si>
+    <t>村北出现一头熊，去做了它</t>
   </si>
 </sst>
 </file>
@@ -160,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -180,8 +312,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -197,17 +352,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,22 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +403,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -256,9 +426,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,58 +450,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,31 +471,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,31 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,115 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,11 +698,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +761,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,45 +795,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,140 +813,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,8 +954,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1127,28 +1286,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.83333333333333" style="2"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,315 +1347,1306 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10020</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>10010</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
         <v>10020</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10030</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10040</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3">
+        <v>120</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>180</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>10051</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5">
+        <v>21001</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5">
+        <v>21002</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5">
+        <v>21003</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5">
+        <v>90</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5">
+        <v>21004</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5">
+        <v>21005</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5">
+        <v>21006</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5">
+        <v>90</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="5">
+        <v>22001</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5">
+        <v>120</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5">
+        <v>22002</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="5">
+        <v>180</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5">
+        <v>22003</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5">
+        <v>300</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="5">
+        <v>22004</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="5">
+        <v>120</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="5">
+        <v>22005</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="5">
+        <v>180</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5">
+        <v>22006</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="5">
+        <v>300</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="5">
+        <v>22007</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="5">
+        <v>120</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="5">
+        <v>22008</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5">
+        <v>180</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="5">
+        <v>22009</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="5">
+        <v>300</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="5">
+        <v>22010</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="5">
+        <v>120</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="5">
+        <v>22011</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="5">
+        <v>180</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="5">
+        <v>22012</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="5">
+        <v>300</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6">
+        <v>31101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="6">
         <v>20</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="6">
+        <v>31102</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>10020</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10010</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10030</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="I30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>10030</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10020</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10040</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6">
+        <v>31103</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="6">
+        <v>60</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2">
-        <v>60</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>10040</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10030</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10050</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2">
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="6">
+        <v>32101</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="6">
         <v>120</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>10050</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10040</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10060</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>32102</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="6">
         <v>180</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>10060</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10050</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2">
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
+        <v>32103</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="6">
         <v>300</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="6">
         <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26960" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="91">
   <si>
     <t>任务ID</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Collect_Bear</t>
+  </si>
+  <si>
+    <t>OnStartUpgradeFacility</t>
   </si>
   <si>
     <t>战斗-剿匪</t>
@@ -291,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -313,7 +316,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,14 +385,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +406,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -359,30 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,45 +445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,13 +458,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -489,19 +492,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,13 +612,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,145 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +701,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -709,24 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,17 +740,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,8 +763,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,136 +816,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,10 +1294,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
@@ -1313,7 +1316,7 @@
     <col min="15" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1681,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>37</v>
@@ -1697,13 +1700,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -1730,17 +1733,17 @@
         <v>21001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>34</v>
@@ -1749,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
@@ -1768,17 +1771,17 @@
         <v>21002</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>34</v>
@@ -1787,7 +1790,7 @@
         <v>60</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -1806,17 +1809,17 @@
         <v>21003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>34</v>
@@ -1825,7 +1828,7 @@
         <v>90</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -1844,17 +1847,17 @@
         <v>21004</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>40</v>
@@ -1863,7 +1866,7 @@
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -1882,17 +1885,17 @@
         <v>21005</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>40</v>
@@ -1901,7 +1904,7 @@
         <v>60</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" s="5">
         <v>0</v>
@@ -1920,17 +1923,17 @@
         <v>21006</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>40</v>
@@ -1939,7 +1942,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
@@ -1958,17 +1961,17 @@
         <v>22001</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>34</v>
@@ -1977,7 +1980,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
@@ -1996,17 +1999,17 @@
         <v>22002</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>34</v>
@@ -2015,7 +2018,7 @@
         <v>180</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -2034,17 +2037,17 @@
         <v>22003</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>34</v>
@@ -2053,7 +2056,7 @@
         <v>300</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
@@ -2072,17 +2075,17 @@
         <v>22004</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>40</v>
@@ -2091,7 +2094,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
@@ -2110,17 +2113,17 @@
         <v>22005</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>40</v>
@@ -2129,7 +2132,7 @@
         <v>180</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
@@ -2148,17 +2151,17 @@
         <v>22006</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>40</v>
@@ -2167,7 +2170,7 @@
         <v>300</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
@@ -2186,26 +2189,26 @@
         <v>22007</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" s="5">
         <v>120</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -2224,26 +2227,26 @@
         <v>22008</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="5">
         <v>180</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -2262,26 +2265,26 @@
         <v>22009</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="5">
         <v>300</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
@@ -2300,26 +2303,26 @@
         <v>22010</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="5">
         <v>120</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
@@ -2338,26 +2341,26 @@
         <v>22011</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" s="5">
         <v>180</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -2376,26 +2379,26 @@
         <v>22012</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" s="5">
         <v>300</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -2414,17 +2417,17 @@
         <v>31101</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>47</v>
@@ -2454,17 +2457,17 @@
         <v>31102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>50</v>
@@ -2494,20 +2497,20 @@
         <v>31103</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" s="6">
         <v>60</v>
@@ -2534,17 +2537,17 @@
         <v>32101</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>47</v>
@@ -2574,17 +2577,17 @@
         <v>32102</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>50</v>
@@ -2614,20 +2617,20 @@
         <v>32103</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="6">
         <v>300</v>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -513,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,32 +534,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,62 +604,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +626,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +665,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,31 +717,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,31 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,31 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,11 +928,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,23 +983,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,7 +993,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,26 +1013,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,136 +1041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,7 +1519,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -2354,7 +2354,7 @@
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>40</v>
@@ -2399,7 +2399,7 @@
         <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>46</v>
@@ -2720,7 +2720,7 @@
         <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>40</v>
@@ -2765,7 +2765,7 @@
         <v>64</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>46</v>
@@ -3221,7 +3221,7 @@
         <v>61</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>40</v>
@@ -3266,7 +3266,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>46</v>
@@ -3861,7 +3861,7 @@
         <v>61</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>40</v>
@@ -3906,7 +3906,7 @@
         <v>64</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>46</v>
@@ -4501,7 +4501,7 @@
         <v>61</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>40</v>
@@ -4546,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>46</v>
@@ -5141,7 +5141,7 @@
         <v>61</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>40</v>
@@ -5186,7 +5186,7 @@
         <v>64</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>46</v>
@@ -6012,9 +6012,6 @@
       <c r="Q97" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="H10:H97">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -534,11 +534,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,9 +556,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,37 +594,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,8 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,6 +648,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -648,31 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,19 +717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,25 +771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,13 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,43 +825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,19 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,19 +885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +950,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,26 +980,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,27 +1023,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,136 +1041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,21 +1519,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="52.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.0833333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="21" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.125" customWidth="1"/>
@@ -1542,7 +1542,7 @@
     <col min="18" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12530"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -514,9 +514,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -541,8 +541,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +572,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,38 +593,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,6 +616,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -624,25 +631,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,16 +656,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,7 +717,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,43 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,49 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,73 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,17 +935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +955,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,8 +992,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,15 +1005,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,136 +1041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,10 +1519,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="2" customWidth="1"/>
@@ -1542,7 +1542,7 @@
     <col min="18" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -6012,6 +6012,9 @@
       <c r="Q97" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="H10:H97">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -1517,9 +1517,9 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5:O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
@@ -1791,7 +1791,9 @@
       <c r="N5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>-1</v>
+      </c>
       <c r="P5" s="3">
         <v>1</v>
       </c>
@@ -1842,7 +1844,9 @@
       <c r="N6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>-1</v>
+      </c>
       <c r="P6" s="3">
         <v>1</v>
       </c>
@@ -1893,7 +1897,9 @@
       <c r="N7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>-1</v>
+      </c>
       <c r="P7" s="3">
         <v>1</v>
       </c>
@@ -1944,7 +1950,9 @@
       <c r="N8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>-1</v>
+      </c>
       <c r="P8" s="3">
         <v>1</v>
       </c>
@@ -1993,7 +2001,9 @@
       <c r="N9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
       <c r="P9" s="3">
         <v>1</v>
       </c>
@@ -2042,7 +2052,9 @@
       <c r="N10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>-1</v>
+      </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
@@ -2093,7 +2105,9 @@
       <c r="N11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="3">
+        <v>-1</v>
+      </c>
       <c r="P11" s="4">
         <v>1</v>
       </c>
@@ -2144,7 +2158,9 @@
       <c r="N12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
       <c r="P12" s="4">
         <v>1</v>
       </c>
@@ -2195,7 +2211,9 @@
       <c r="N13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="3">
+        <v>-1</v>
+      </c>
       <c r="P13" s="5">
         <v>1</v>
       </c>
@@ -2240,7 +2258,9 @@
       <c r="N14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="3">
+        <v>-1</v>
+      </c>
       <c r="P14" s="5">
         <v>1</v>
       </c>
@@ -2285,7 +2305,9 @@
       <c r="N15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="3">
+        <v>-1</v>
+      </c>
       <c r="P15" s="5">
         <v>1</v>
       </c>
@@ -2330,7 +2352,9 @@
       <c r="N16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="3">
+        <v>-1</v>
+      </c>
       <c r="P16" s="5">
         <v>1</v>
       </c>
@@ -2375,7 +2399,9 @@
       <c r="N17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="3">
+        <v>-1</v>
+      </c>
       <c r="P17" s="4">
         <v>1</v>
       </c>
@@ -2420,7 +2446,9 @@
       <c r="N18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="3">
+        <v>-1</v>
+      </c>
       <c r="P18" s="4">
         <v>1</v>
       </c>
@@ -2467,7 +2495,9 @@
       <c r="N19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="3">
+        <v>-1</v>
+      </c>
       <c r="P19" s="4">
         <v>2</v>
       </c>
@@ -2514,7 +2544,9 @@
       <c r="N20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="3">
+        <v>-1</v>
+      </c>
       <c r="P20" s="4">
         <v>2</v>
       </c>
@@ -2561,7 +2593,9 @@
       <c r="N21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="3">
+        <v>-1</v>
+      </c>
       <c r="P21" s="4">
         <v>1</v>
       </c>
@@ -2606,7 +2640,9 @@
       <c r="N22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="3">
+        <v>-1</v>
+      </c>
       <c r="P22" s="4">
         <v>1</v>
       </c>
@@ -2651,7 +2687,9 @@
       <c r="N23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="3">
+        <v>-1</v>
+      </c>
       <c r="P23" s="4">
         <v>2</v>
       </c>
@@ -2696,7 +2734,9 @@
       <c r="N24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="3">
+        <v>-1</v>
+      </c>
       <c r="P24" s="4">
         <v>1</v>
       </c>
@@ -2741,7 +2781,9 @@
       <c r="N25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="3">
+        <v>-1</v>
+      </c>
       <c r="P25" s="5">
         <v>2</v>
       </c>
@@ -2786,7 +2828,9 @@
       <c r="N26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="3">
+        <v>-1</v>
+      </c>
       <c r="P26" s="5">
         <v>2</v>
       </c>
@@ -2833,7 +2877,9 @@
       <c r="N27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="O27" s="3">
+        <v>-1</v>
+      </c>
       <c r="P27" s="5">
         <v>2</v>
       </c>
@@ -2880,7 +2926,9 @@
       <c r="N28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="3">
+        <v>-1</v>
+      </c>
       <c r="P28" s="5">
         <v>2</v>
       </c>
@@ -2927,7 +2975,9 @@
       <c r="N29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="3">
+        <v>-1</v>
+      </c>
       <c r="P29" s="5">
         <v>1</v>
       </c>
@@ -2972,7 +3022,9 @@
       <c r="N30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="5"/>
+      <c r="O30" s="3">
+        <v>-1</v>
+      </c>
       <c r="P30" s="5">
         <v>1</v>
       </c>
@@ -3017,7 +3069,9 @@
       <c r="N31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="5"/>
+      <c r="O31" s="3">
+        <v>-1</v>
+      </c>
       <c r="P31" s="5">
         <v>2</v>
       </c>
@@ -3062,7 +3116,9 @@
       <c r="N32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="3">
+        <v>-1</v>
+      </c>
       <c r="P32" s="5">
         <v>1</v>
       </c>
@@ -3107,7 +3163,9 @@
       <c r="N33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="3">
+        <v>-1</v>
+      </c>
       <c r="P33" s="5">
         <v>1</v>
       </c>
@@ -3152,7 +3210,9 @@
       <c r="N34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="5"/>
+      <c r="O34" s="3">
+        <v>-1</v>
+      </c>
       <c r="P34" s="5">
         <v>2</v>
       </c>
@@ -3197,7 +3257,9 @@
       <c r="N35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="5"/>
+      <c r="O35" s="3">
+        <v>-1</v>
+      </c>
       <c r="P35" s="5">
         <v>1</v>
       </c>
@@ -3242,7 +3304,9 @@
       <c r="N36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="4"/>
+      <c r="O36" s="3">
+        <v>-1</v>
+      </c>
       <c r="P36" s="4">
         <v>2</v>
       </c>
@@ -3287,7 +3351,9 @@
       <c r="N37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="4"/>
+      <c r="O37" s="3">
+        <v>-1</v>
+      </c>
       <c r="P37" s="4">
         <v>2</v>
       </c>
@@ -3334,7 +3400,9 @@
       <c r="N38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="4"/>
+      <c r="O38" s="3">
+        <v>-1</v>
+      </c>
       <c r="P38" s="4">
         <v>2</v>
       </c>
@@ -3381,7 +3449,9 @@
       <c r="N39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="4"/>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
       <c r="P39" s="4">
         <v>2</v>
       </c>
@@ -3428,7 +3498,9 @@
       <c r="N40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="O40" s="3">
+        <v>-1</v>
+      </c>
       <c r="P40" s="4">
         <v>1</v>
       </c>
@@ -3473,7 +3545,9 @@
       <c r="N41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="4"/>
+      <c r="O41" s="3">
+        <v>-1</v>
+      </c>
       <c r="P41" s="4">
         <v>1</v>
       </c>
@@ -3518,7 +3592,9 @@
       <c r="N42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O42" s="4"/>
+      <c r="O42" s="3">
+        <v>-1</v>
+      </c>
       <c r="P42" s="4">
         <v>2</v>
       </c>
@@ -3563,7 +3639,9 @@
       <c r="N43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="O43" s="3">
+        <v>-1</v>
+      </c>
       <c r="P43" s="4">
         <v>1</v>
       </c>
@@ -3608,7 +3686,9 @@
       <c r="N44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O44" s="4"/>
+      <c r="O44" s="3">
+        <v>-1</v>
+      </c>
       <c r="P44" s="4">
         <v>1</v>
       </c>
@@ -3653,7 +3733,9 @@
       <c r="N45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="4"/>
+      <c r="O45" s="3">
+        <v>-1</v>
+      </c>
       <c r="P45" s="4">
         <v>2</v>
       </c>
@@ -3698,7 +3780,9 @@
       <c r="N46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="4"/>
+      <c r="O46" s="3">
+        <v>-1</v>
+      </c>
       <c r="P46" s="4">
         <v>1</v>
       </c>
@@ -3745,7 +3829,9 @@
       <c r="N47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O47" s="4"/>
+      <c r="O47" s="3">
+        <v>-1</v>
+      </c>
       <c r="P47" s="4">
         <v>2</v>
       </c>
@@ -3790,7 +3876,9 @@
       <c r="N48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O48" s="4"/>
+      <c r="O48" s="3">
+        <v>-1</v>
+      </c>
       <c r="P48" s="4">
         <v>1</v>
       </c>
@@ -3837,7 +3925,9 @@
       <c r="N49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O49" s="4"/>
+      <c r="O49" s="3">
+        <v>-1</v>
+      </c>
       <c r="P49" s="4">
         <v>2</v>
       </c>
@@ -3882,7 +3972,9 @@
       <c r="N50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="3">
+        <v>-1</v>
+      </c>
       <c r="P50" s="5">
         <v>2</v>
       </c>
@@ -3927,7 +4019,9 @@
       <c r="N51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="O51" s="3">
+        <v>-1</v>
+      </c>
       <c r="P51" s="5">
         <v>2</v>
       </c>
@@ -3974,7 +4068,9 @@
       <c r="N52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="O52" s="3">
+        <v>-1</v>
+      </c>
       <c r="P52" s="5">
         <v>2</v>
       </c>
@@ -4021,7 +4117,9 @@
       <c r="N53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="3">
+        <v>-1</v>
+      </c>
       <c r="P53" s="5">
         <v>2</v>
       </c>
@@ -4068,7 +4166,9 @@
       <c r="N54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O54" s="5"/>
+      <c r="O54" s="3">
+        <v>-1</v>
+      </c>
       <c r="P54" s="5">
         <v>1</v>
       </c>
@@ -4113,7 +4213,9 @@
       <c r="N55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O55" s="5"/>
+      <c r="O55" s="3">
+        <v>-1</v>
+      </c>
       <c r="P55" s="5">
         <v>1</v>
       </c>
@@ -4158,7 +4260,9 @@
       <c r="N56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O56" s="5"/>
+      <c r="O56" s="3">
+        <v>-1</v>
+      </c>
       <c r="P56" s="5">
         <v>2</v>
       </c>
@@ -4203,7 +4307,9 @@
       <c r="N57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O57" s="5"/>
+      <c r="O57" s="3">
+        <v>-1</v>
+      </c>
       <c r="P57" s="5">
         <v>1</v>
       </c>
@@ -4248,7 +4354,9 @@
       <c r="N58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="5"/>
+      <c r="O58" s="3">
+        <v>-1</v>
+      </c>
       <c r="P58" s="5">
         <v>1</v>
       </c>
@@ -4293,7 +4401,9 @@
       <c r="N59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="5"/>
+      <c r="O59" s="3">
+        <v>-1</v>
+      </c>
       <c r="P59" s="5">
         <v>2</v>
       </c>
@@ -4338,7 +4448,9 @@
       <c r="N60" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="5"/>
+      <c r="O60" s="3">
+        <v>-1</v>
+      </c>
       <c r="P60" s="5">
         <v>1</v>
       </c>
@@ -4385,7 +4497,9 @@
       <c r="N61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="5"/>
+      <c r="O61" s="3">
+        <v>-1</v>
+      </c>
       <c r="P61" s="5">
         <v>2</v>
       </c>
@@ -4430,7 +4544,9 @@
       <c r="N62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="5"/>
+      <c r="O62" s="3">
+        <v>-1</v>
+      </c>
       <c r="P62" s="5">
         <v>1</v>
       </c>
@@ -4477,7 +4593,9 @@
       <c r="N63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="5"/>
+      <c r="O63" s="3">
+        <v>-1</v>
+      </c>
       <c r="P63" s="5">
         <v>2</v>
       </c>
@@ -4522,7 +4640,9 @@
       <c r="N64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="4"/>
+      <c r="O64" s="3">
+        <v>-1</v>
+      </c>
       <c r="P64" s="4">
         <v>2</v>
       </c>
@@ -4567,7 +4687,9 @@
       <c r="N65" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="4"/>
+      <c r="O65" s="3">
+        <v>-1</v>
+      </c>
       <c r="P65" s="4">
         <v>2</v>
       </c>
@@ -4614,7 +4736,9 @@
       <c r="N66" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="4"/>
+      <c r="O66" s="3">
+        <v>-1</v>
+      </c>
       <c r="P66" s="4">
         <v>3</v>
       </c>
@@ -4661,7 +4785,9 @@
       <c r="N67" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="4"/>
+      <c r="O67" s="3">
+        <v>-1</v>
+      </c>
       <c r="P67" s="4">
         <v>3</v>
       </c>
@@ -4708,7 +4834,9 @@
       <c r="N68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O68" s="4"/>
+      <c r="O68" s="3">
+        <v>-1</v>
+      </c>
       <c r="P68" s="4">
         <v>1</v>
       </c>
@@ -4753,7 +4881,9 @@
       <c r="N69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="4"/>
+      <c r="O69" s="3">
+        <v>-1</v>
+      </c>
       <c r="P69" s="4">
         <v>1</v>
       </c>
@@ -4798,7 +4928,9 @@
       <c r="N70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O70" s="4"/>
+      <c r="O70" s="3">
+        <v>-1</v>
+      </c>
       <c r="P70" s="4">
         <v>2</v>
       </c>
@@ -4843,7 +4975,9 @@
       <c r="N71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="4"/>
+      <c r="O71" s="3">
+        <v>-1</v>
+      </c>
       <c r="P71" s="4">
         <v>1</v>
       </c>
@@ -4888,7 +5022,9 @@
       <c r="N72" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="4"/>
+      <c r="O72" s="3">
+        <v>-1</v>
+      </c>
       <c r="P72" s="4">
         <v>1</v>
       </c>
@@ -4933,7 +5069,9 @@
       <c r="N73" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O73" s="4"/>
+      <c r="O73" s="3">
+        <v>-1</v>
+      </c>
       <c r="P73" s="4">
         <v>2</v>
       </c>
@@ -4978,7 +5116,9 @@
       <c r="N74" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="4"/>
+      <c r="O74" s="3">
+        <v>-1</v>
+      </c>
       <c r="P74" s="4">
         <v>1</v>
       </c>
@@ -5025,7 +5165,9 @@
       <c r="N75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="4"/>
+      <c r="O75" s="3">
+        <v>-1</v>
+      </c>
       <c r="P75" s="4">
         <v>2</v>
       </c>
@@ -5070,7 +5212,9 @@
       <c r="N76" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O76" s="4"/>
+      <c r="O76" s="3">
+        <v>-1</v>
+      </c>
       <c r="P76" s="4">
         <v>1</v>
       </c>
@@ -5117,7 +5261,9 @@
       <c r="N77" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="4"/>
+      <c r="O77" s="3">
+        <v>-1</v>
+      </c>
       <c r="P77" s="4">
         <v>2</v>
       </c>
@@ -5162,7 +5308,9 @@
       <c r="N78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="5"/>
+      <c r="O78" s="3">
+        <v>-1</v>
+      </c>
       <c r="P78" s="5">
         <v>2</v>
       </c>
@@ -5207,7 +5355,9 @@
       <c r="N79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="5"/>
+      <c r="O79" s="3">
+        <v>-1</v>
+      </c>
       <c r="P79" s="5">
         <v>2</v>
       </c>
@@ -5254,7 +5404,9 @@
       <c r="N80" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="5"/>
+      <c r="O80" s="3">
+        <v>-1</v>
+      </c>
       <c r="P80" s="5">
         <v>3</v>
       </c>
@@ -5301,7 +5453,9 @@
       <c r="N81" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O81" s="5"/>
+      <c r="O81" s="3">
+        <v>-1</v>
+      </c>
       <c r="P81" s="5">
         <v>3</v>
       </c>
@@ -5348,7 +5502,9 @@
       <c r="N82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O82" s="5"/>
+      <c r="O82" s="3">
+        <v>-1</v>
+      </c>
       <c r="P82" s="5">
         <v>1</v>
       </c>
@@ -5393,7 +5549,9 @@
       <c r="N83" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O83" s="5"/>
+      <c r="O83" s="3">
+        <v>-1</v>
+      </c>
       <c r="P83" s="5">
         <v>1</v>
       </c>
@@ -5438,7 +5596,9 @@
       <c r="N84" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O84" s="5"/>
+      <c r="O84" s="3">
+        <v>-1</v>
+      </c>
       <c r="P84" s="5">
         <v>2</v>
       </c>
@@ -5483,7 +5643,9 @@
       <c r="N85" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O85" s="5"/>
+      <c r="O85" s="3">
+        <v>-1</v>
+      </c>
       <c r="P85" s="5">
         <v>1</v>
       </c>
@@ -5528,7 +5690,9 @@
       <c r="N86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O86" s="5"/>
+      <c r="O86" s="3">
+        <v>-1</v>
+      </c>
       <c r="P86" s="5">
         <v>1</v>
       </c>
@@ -5573,7 +5737,9 @@
       <c r="N87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O87" s="5"/>
+      <c r="O87" s="3">
+        <v>-1</v>
+      </c>
       <c r="P87" s="5">
         <v>2</v>
       </c>
@@ -5618,7 +5784,9 @@
       <c r="N88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="5"/>
+      <c r="O88" s="3">
+        <v>-1</v>
+      </c>
       <c r="P88" s="5">
         <v>1</v>
       </c>
@@ -5665,7 +5833,9 @@
       <c r="N89" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O89" s="5"/>
+      <c r="O89" s="3">
+        <v>-1</v>
+      </c>
       <c r="P89" s="5">
         <v>2</v>
       </c>
@@ -5710,7 +5880,9 @@
       <c r="N90" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O90" s="5"/>
+      <c r="O90" s="3">
+        <v>-1</v>
+      </c>
       <c r="P90" s="5">
         <v>1</v>
       </c>
@@ -5757,7 +5929,9 @@
       <c r="N91" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="5"/>
+      <c r="O91" s="3">
+        <v>-1</v>
+      </c>
       <c r="P91" s="5">
         <v>2</v>
       </c>
@@ -5802,7 +5976,9 @@
       <c r="N92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O92" s="6"/>
+      <c r="O92" s="3">
+        <v>-1</v>
+      </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
     </row>
@@ -5843,7 +6019,9 @@
       <c r="N93" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O93" s="6"/>
+      <c r="O93" s="3">
+        <v>-1</v>
+      </c>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
     </row>
@@ -5884,7 +6062,9 @@
       <c r="N94" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O94" s="6"/>
+      <c r="O94" s="3">
+        <v>-1</v>
+      </c>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
     </row>
@@ -5925,7 +6105,9 @@
       <c r="N95" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O95" s="6"/>
+      <c r="O95" s="3">
+        <v>-1</v>
+      </c>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
     </row>
@@ -5966,7 +6148,9 @@
       <c r="N96" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O96" s="6"/>
+      <c r="O96" s="3">
+        <v>-1</v>
+      </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
     </row>
@@ -6007,7 +6191,9 @@
       <c r="N97" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O97" s="6"/>
+      <c r="O97" s="3">
+        <v>-1</v>
+      </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
     </row>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -513,9 +513,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -535,21 +535,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -557,37 +542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,29 +550,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,17 +571,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,14 +601,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -717,7 +717,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,19 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,37 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,109 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,24 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -955,6 +937,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,34 +1018,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,136 +1041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,10 +1519,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="2" customWidth="1"/>
@@ -1542,7 +1542,7 @@
     <col min="18" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2074,8 +2074,8 @@
       <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>40</v>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="4">
         <v>60</v>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25770" windowHeight="13880"/>
+    <workbookView windowWidth="25990" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -513,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -541,6 +541,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -555,6 +563,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -563,24 +593,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +633,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,15 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -626,55 +671,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,73 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,13 +747,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,67 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,6 +926,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -937,15 +946,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,22 +965,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,17 +995,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,16 +1014,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,136 +1041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,7 +1519,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25990" windowHeight="14440"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="166">
   <si>
     <t>任务ID</t>
   </si>
@@ -64,6 +64,9 @@
     <t>任务参数</t>
   </si>
   <si>
+    <t>敌人配置</t>
+  </si>
+  <si>
     <t>可派弟子数量</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>ConditionValue</t>
   </si>
   <si>
+    <t>Enemy</t>
+  </si>
+  <si>
     <t>RoleAmount</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
   </si>
   <si>
     <t>Battle</t>
+  </si>
+  <si>
+    <t>104|80;105|80;105|80;105|80;101|150</t>
   </si>
   <si>
     <t>Common</t>
@@ -513,10 +522,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,10 +543,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,6 +556,42 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,6 +609,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -570,8 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,8 +664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,73 +680,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,7 +726,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +846,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,37 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,73 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,6 +944,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -950,32 +983,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,29 +1011,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,43 +1050,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1086,91 +1095,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,15 +1523,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="2" customWidth="1"/>
@@ -1537,12 +1546,12 @@
     <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="21" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="13.75" style="2" customWidth="1"/>
-    <col min="16" max="17" width="6.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.83333333333333" style="2"/>
+    <col min="15" max="16" width="21.25" style="2" customWidth="1"/>
+    <col min="17" max="18" width="6.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,172 +1603,184 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>10010</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -1767,50 +1788,51 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>10020</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1818,50 +1840,51 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="3">
         <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
         <v>10</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>10030</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -1869,199 +1892,205 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>60</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
-        <v>45</v>
+      <c r="R7" s="3">
+        <v>1</v>
       </c>
       <c r="S7" s="2">
+        <v>45</v>
+      </c>
+      <c r="T7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>10040</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="3">
         <v>120</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
         <v>100</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>10050</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3">
         <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
         <v>180</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>10051</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>1</v>
+      <c r="P10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
         <v>270</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>20101</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2069,50 +2098,51 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="I11" s="4">
         <v>60</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
         <v>400</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>20102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2120,50 +2150,51 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I12" s="4">
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4">
         <v>1</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>550</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="5">
         <v>20201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2171,44 +2202,45 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" s="5">
         <v>180</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5">
         <v>20202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2216,44 +2248,45 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I14" s="5">
         <v>180</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="5">
         <v>20203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2261,44 +2294,45 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" s="5">
         <v>180</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="5">
         <v>20204</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2306,44 +2340,45 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I16" s="5">
         <v>180</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O16" s="5"/>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>20301</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2351,44 +2386,45 @@
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="4">
         <v>300</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>20302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2396,44 +2432,45 @@
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I18" s="4">
         <v>300</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
+      <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>20303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2441,46 +2478,47 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I19" s="4">
         <v>300</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K19" s="4">
         <v>6000</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O19" s="4"/>
-      <c r="P19" s="4">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4">
         <v>2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>20304</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2488,46 +2526,47 @@
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I20" s="4">
         <v>300</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="4">
         <v>6000</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="4">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
         <v>2</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>20305</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2535,46 +2574,47 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I21" s="4">
         <v>480</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K21" s="4">
         <v>6000</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>20306</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2582,44 +2622,45 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I22" s="4">
         <v>300</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O22" s="4"/>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
+      <c r="P22" s="4"/>
       <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="4">
         <v>20307</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2627,44 +2668,45 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I23" s="4">
         <v>300</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O23" s="4"/>
-      <c r="P23" s="4">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4">
         <v>2</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <v>20308</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2672,44 +2714,45 @@
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4">
         <v>300</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
+      <c r="P24" s="4"/>
       <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="5">
         <v>20401</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2717,44 +2760,45 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" s="5">
         <v>600</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K25" s="5">
         <v>0</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O25" s="5"/>
-      <c r="P25" s="5">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5">
         <v>2</v>
       </c>
-      <c r="Q25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="5">
         <v>20402</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2762,44 +2806,45 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" s="5">
         <v>600</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O26" s="5"/>
-      <c r="P26" s="5">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5">
         <v>2</v>
       </c>
-      <c r="Q26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="5">
         <v>20403</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2807,46 +2852,47 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I27" s="5">
         <v>600</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K27" s="5">
         <v>7000</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O27" s="5"/>
-      <c r="P27" s="5">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5">
         <v>2</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="R27" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="5">
         <v>20404</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2854,46 +2900,47 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I28" s="5">
         <v>600</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K28" s="5">
         <v>7000</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O28" s="5"/>
-      <c r="P28" s="5">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5">
         <v>2</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="R28" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="5">
         <v>20405</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2901,46 +2948,47 @@
         <v>4</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I29" s="5">
         <v>480</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K29" s="5">
         <v>6000</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O29" s="5"/>
-      <c r="P29" s="5">
-        <v>1</v>
-      </c>
+      <c r="P29" s="5"/>
       <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+      <c r="R29" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="5">
         <v>20406</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2948,44 +2996,45 @@
         <v>4</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I30" s="5">
         <v>300</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K30" s="5">
         <v>0</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O30" s="5"/>
-      <c r="P30" s="5">
-        <v>1</v>
-      </c>
+      <c r="P30" s="5"/>
       <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="5">
         <v>20407</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2993,44 +3042,45 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I31" s="5">
         <v>300</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K31" s="5">
         <v>0</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O31" s="5"/>
-      <c r="P31" s="5">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
         <v>2</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="R31" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="5">
         <v>20408</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3038,44 +3088,45 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I32" s="5">
         <v>300</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O32" s="5"/>
-      <c r="P32" s="5">
-        <v>1</v>
-      </c>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="5">
         <v>20409</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3083,44 +3134,45 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I33" s="5">
         <v>600</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O33" s="5"/>
-      <c r="P33" s="5">
-        <v>1</v>
-      </c>
+      <c r="P33" s="5"/>
       <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" s="5">
         <v>20410</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3128,44 +3180,45 @@
         <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I34" s="5">
         <v>300</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K34" s="5">
         <v>0</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O34" s="5"/>
-      <c r="P34" s="5">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
         <v>2</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="R34" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="5">
         <v>20411</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3173,44 +3226,45 @@
         <v>4</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I35" s="5">
         <v>480</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K35" s="5">
         <v>0</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O35" s="5"/>
-      <c r="P35" s="5">
-        <v>1</v>
-      </c>
+      <c r="P35" s="5"/>
       <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" s="4">
         <v>20501</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3218,44 +3272,45 @@
         <v>5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" s="4">
         <v>900</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O36" s="4"/>
-      <c r="P36" s="4">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
         <v>2</v>
       </c>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="4">
         <v>20502</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3263,44 +3318,45 @@
         <v>5</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I37" s="4">
         <v>900</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="P37" s="4">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4">
         <v>2</v>
       </c>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="4">
         <v>20503</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3308,46 +3364,47 @@
         <v>5</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I38" s="4">
         <v>900</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K38" s="4">
         <v>8000</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O38" s="4"/>
-      <c r="P38" s="4">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4">
         <v>2</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="4">
         <v>20504</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3355,46 +3412,47 @@
         <v>5</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I39" s="4">
         <v>900</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K39" s="4">
         <v>8000</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O39" s="4"/>
-      <c r="P39" s="4">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4">
         <v>2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="4">
         <v>20505</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3402,46 +3460,47 @@
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I40" s="4">
         <v>720</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K40" s="4">
         <v>8000</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O40" s="4"/>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
+      <c r="P40" s="4"/>
       <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="4">
         <v>20506</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3449,44 +3508,45 @@
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I41" s="4">
         <v>600</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K41" s="4">
         <v>0</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O41" s="4"/>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
+      <c r="P41" s="4"/>
       <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" s="4">
         <v>20507</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3494,44 +3554,45 @@
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" s="4">
         <v>480</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O42" s="4"/>
-      <c r="P42" s="4">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
         <v>2</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" s="4">
         <v>20508</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3539,44 +3600,45 @@
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I43" s="4">
         <v>480</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O43" s="4"/>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
+      <c r="P43" s="4"/>
       <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" s="4">
         <v>20509</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3584,44 +3646,45 @@
         <v>5</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I44" s="4">
         <v>600</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O44" s="4"/>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
+      <c r="P44" s="4"/>
       <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" s="4">
         <v>20510</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3629,44 +3692,45 @@
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I45" s="4">
         <v>480</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O45" s="4"/>
-      <c r="P45" s="4">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
         <v>2</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" s="4">
         <v>20511</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3674,44 +3738,45 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I46" s="4">
         <v>1200</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
+      <c r="P46" s="4"/>
       <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" s="4">
         <v>20512</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3719,46 +3784,47 @@
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I47" s="4">
         <v>1080</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K47" s="4">
         <v>8000</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="4">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4">
         <v>2</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" s="4">
         <v>20513</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3766,44 +3832,45 @@
         <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I48" s="4">
         <v>480</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
+      <c r="P48" s="4"/>
       <c r="Q48" s="4">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" s="4">
         <v>20514</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3811,46 +3878,47 @@
         <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I49" s="4">
         <v>1080</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K49" s="4">
         <v>8000</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="4">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
         <v>2</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" s="5">
         <v>20601</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3858,44 +3926,45 @@
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I50" s="5">
         <v>1200</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K50" s="5">
         <v>0</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O50" s="5"/>
-      <c r="P50" s="5">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5">
         <v>2</v>
       </c>
-      <c r="Q50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="5">
         <v>20602</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3903,44 +3972,45 @@
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I51" s="5">
         <v>1200</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O51" s="5"/>
-      <c r="P51" s="5">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5">
         <v>2</v>
       </c>
-      <c r="Q51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="5">
         <v>20603</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3948,46 +4018,47 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I52" s="5">
         <v>1200</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K52" s="5">
         <v>9000</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O52" s="5"/>
-      <c r="P52" s="5">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5">
         <v>2</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" s="5">
         <v>20604</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3995,46 +4066,47 @@
         <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I53" s="5">
         <v>1200</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K53" s="5">
         <v>9000</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O53" s="5"/>
-      <c r="P53" s="5">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5">
         <v>2</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="R53" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" s="5">
         <v>20605</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -4042,46 +4114,47 @@
         <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I54" s="5">
         <v>720</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K54" s="5">
         <v>8000</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O54" s="5"/>
-      <c r="P54" s="5">
-        <v>1</v>
-      </c>
+      <c r="P54" s="5"/>
       <c r="Q54" s="5">
+        <v>1</v>
+      </c>
+      <c r="R54" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" s="5">
         <v>20606</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4089,44 +4162,45 @@
         <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I55" s="5">
         <v>600</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K55" s="5">
         <v>0</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O55" s="5"/>
-      <c r="P55" s="5">
-        <v>1</v>
-      </c>
+      <c r="P55" s="5"/>
       <c r="Q55" s="5">
+        <v>1</v>
+      </c>
+      <c r="R55" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" s="5">
         <v>20607</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4134,44 +4208,45 @@
         <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I56" s="5">
         <v>480</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K56" s="5">
         <v>0</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O56" s="5"/>
-      <c r="P56" s="5">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5">
         <v>2</v>
       </c>
-      <c r="Q56" s="5">
+      <c r="R56" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" s="5">
         <v>20608</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4179,44 +4254,45 @@
         <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I57" s="5">
         <v>600</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K57" s="5">
         <v>0</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O57" s="5"/>
-      <c r="P57" s="5">
-        <v>1</v>
-      </c>
+      <c r="P57" s="5"/>
       <c r="Q57" s="5">
+        <v>1</v>
+      </c>
+      <c r="R57" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" s="5">
         <v>20609</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4224,44 +4300,45 @@
         <v>6</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I58" s="5">
         <v>600</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K58" s="5">
         <v>0</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O58" s="5"/>
-      <c r="P58" s="5">
-        <v>1</v>
-      </c>
+      <c r="P58" s="5"/>
       <c r="Q58" s="5">
+        <v>1</v>
+      </c>
+      <c r="R58" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" s="5">
         <v>20610</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4269,44 +4346,45 @@
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I59" s="5">
         <v>600</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K59" s="5">
         <v>0</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O59" s="5"/>
-      <c r="P59" s="5">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5">
         <v>2</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="R59" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" s="5">
         <v>20611</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4314,44 +4392,45 @@
         <v>6</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I60" s="5">
         <v>1200</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K60" s="5">
         <v>0</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O60" s="5"/>
-      <c r="P60" s="5">
-        <v>1</v>
-      </c>
+      <c r="P60" s="5"/>
       <c r="Q60" s="5">
+        <v>1</v>
+      </c>
+      <c r="R60" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" s="5">
         <v>20612</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4359,46 +4438,47 @@
         <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I61" s="5">
         <v>1080</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K61" s="5">
         <v>8000</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O61" s="5"/>
-      <c r="P61" s="5">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5">
         <v>2</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="R61" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" s="5">
         <v>20613</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4406,44 +4486,45 @@
         <v>6</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I62" s="5">
         <v>480</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K62" s="5">
         <v>0</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O62" s="5"/>
-      <c r="P62" s="5">
-        <v>1</v>
-      </c>
+      <c r="P62" s="5"/>
       <c r="Q62" s="5">
+        <v>1</v>
+      </c>
+      <c r="R62" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" s="5">
         <v>20614</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4451,46 +4532,47 @@
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I63" s="5">
         <v>1080</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K63" s="5">
         <v>8000</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O63" s="5"/>
-      <c r="P63" s="5">
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5">
         <v>2</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="R63" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" s="4">
         <v>20701</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4498,44 +4580,45 @@
         <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I64" s="4">
         <v>1200</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K64" s="4">
         <v>0</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O64" s="4"/>
-      <c r="P64" s="4">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4">
         <v>2</v>
       </c>
-      <c r="Q64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4">
         <v>20702</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4543,44 +4626,45 @@
         <v>7</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I65" s="4">
         <v>1200</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K65" s="4">
         <v>0</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O65" s="4"/>
-      <c r="P65" s="4">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4">
         <v>2</v>
       </c>
-      <c r="Q65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4">
         <v>20703</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4588,46 +4672,47 @@
         <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I66" s="4">
         <v>1500</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K66" s="4">
         <v>9500</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O66" s="4"/>
-      <c r="P66" s="4">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4">
         <v>3</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="R66" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" s="4">
         <v>20704</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -4635,46 +4720,47 @@
         <v>7</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I67" s="4">
         <v>1500</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K67" s="4">
         <v>9500</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O67" s="4"/>
-      <c r="P67" s="4">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4">
         <v>3</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="R67" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" s="4">
         <v>20705</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -4682,46 +4768,47 @@
         <v>7</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I68" s="4">
         <v>720</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K68" s="4">
         <v>9000</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O68" s="4"/>
-      <c r="P68" s="4">
-        <v>1</v>
-      </c>
+      <c r="P68" s="4"/>
       <c r="Q68" s="4">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" s="4">
         <v>20706</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -4729,44 +4816,45 @@
         <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I69" s="4">
         <v>600</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O69" s="4"/>
-      <c r="P69" s="4">
-        <v>1</v>
-      </c>
+      <c r="P69" s="4"/>
       <c r="Q69" s="4">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" s="4">
         <v>20707</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -4774,44 +4862,45 @@
         <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I70" s="4">
         <v>480</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="4">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4">
         <v>2</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="R70" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" s="4">
         <v>20708</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4819,44 +4908,45 @@
         <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I71" s="4">
         <v>600</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K71" s="4">
         <v>0</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O71" s="4"/>
-      <c r="P71" s="4">
-        <v>1</v>
-      </c>
+      <c r="P71" s="4"/>
       <c r="Q71" s="4">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" s="4">
         <v>20709</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4864,44 +4954,45 @@
         <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I72" s="4">
         <v>600</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O72" s="4"/>
-      <c r="P72" s="4">
-        <v>1</v>
-      </c>
+      <c r="P72" s="4"/>
       <c r="Q72" s="4">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73" s="4">
         <v>20710</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -4909,44 +5000,45 @@
         <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I73" s="4">
         <v>600</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O73" s="4"/>
-      <c r="P73" s="4">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4">
         <v>2</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="R73" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" s="4">
         <v>20711</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -4954,44 +5046,45 @@
         <v>7</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I74" s="4">
         <v>1200</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K74" s="4">
         <v>0</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O74" s="4"/>
-      <c r="P74" s="4">
-        <v>1</v>
-      </c>
+      <c r="P74" s="4"/>
       <c r="Q74" s="4">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" s="4">
         <v>20712</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -4999,46 +5092,47 @@
         <v>7</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I75" s="4">
         <v>1080</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K75" s="4">
         <v>8000</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O75" s="4"/>
-      <c r="P75" s="4">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4">
         <v>2</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="R75" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" s="4">
         <v>20713</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5046,44 +5140,45 @@
         <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I76" s="4">
         <v>480</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O76" s="4"/>
-      <c r="P76" s="4">
-        <v>1</v>
-      </c>
+      <c r="P76" s="4"/>
       <c r="Q76" s="4">
+        <v>1</v>
+      </c>
+      <c r="R76" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77" s="4">
         <v>20714</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5091,46 +5186,47 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I77" s="4">
         <v>1080</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K77" s="4">
         <v>8000</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O77" s="4"/>
-      <c r="P77" s="4">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4">
         <v>2</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="R77" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" s="5">
         <v>20801</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -5138,44 +5234,45 @@
         <v>8</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I78" s="5">
         <v>1200</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K78" s="5">
         <v>0</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O78" s="5"/>
-      <c r="P78" s="5">
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5">
         <v>2</v>
       </c>
-      <c r="Q78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="5">
         <v>20802</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -5183,44 +5280,45 @@
         <v>8</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I79" s="5">
         <v>1200</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K79" s="5">
         <v>0</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O79" s="5"/>
-      <c r="P79" s="5">
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5">
         <v>2</v>
       </c>
-      <c r="Q79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="5">
         <v>20803</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -5228,46 +5326,47 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I80" s="5">
         <v>1800</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K80" s="5">
         <v>9500</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O80" s="5"/>
-      <c r="P80" s="5">
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5">
         <v>3</v>
       </c>
-      <c r="Q80" s="5">
+      <c r="R80" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81" s="5">
         <v>20804</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5275,46 +5374,47 @@
         <v>8</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I81" s="5">
         <v>1800</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K81" s="5">
         <v>9500</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O81" s="5"/>
-      <c r="P81" s="5">
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5">
         <v>3</v>
       </c>
-      <c r="Q81" s="5">
+      <c r="R81" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82" s="5">
         <v>20805</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -5322,46 +5422,47 @@
         <v>8</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I82" s="5">
         <v>720</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K82" s="5">
         <v>9000</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O82" s="5"/>
-      <c r="P82" s="5">
-        <v>1</v>
-      </c>
+      <c r="P82" s="5"/>
       <c r="Q82" s="5">
+        <v>1</v>
+      </c>
+      <c r="R82" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" s="5">
         <v>20806</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -5369,44 +5470,45 @@
         <v>8</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I83" s="5">
         <v>600</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K83" s="5">
         <v>0</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O83" s="5"/>
-      <c r="P83" s="5">
-        <v>1</v>
-      </c>
+      <c r="P83" s="5"/>
       <c r="Q83" s="5">
+        <v>1</v>
+      </c>
+      <c r="R83" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" s="5">
         <v>20807</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -5414,44 +5516,45 @@
         <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I84" s="5">
         <v>480</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K84" s="5">
         <v>0</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O84" s="5"/>
-      <c r="P84" s="5">
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5">
         <v>2</v>
       </c>
-      <c r="Q84" s="5">
+      <c r="R84" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" s="5">
         <v>20808</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -5459,44 +5562,45 @@
         <v>8</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I85" s="5">
         <v>600</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K85" s="5">
         <v>0</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O85" s="5"/>
-      <c r="P85" s="5">
-        <v>1</v>
-      </c>
+      <c r="P85" s="5"/>
       <c r="Q85" s="5">
+        <v>1</v>
+      </c>
+      <c r="R85" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" s="5">
         <v>20809</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -5504,44 +5608,45 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I86" s="5">
         <v>600</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O86" s="5"/>
-      <c r="P86" s="5">
-        <v>1</v>
-      </c>
+      <c r="P86" s="5"/>
       <c r="Q86" s="5">
+        <v>1</v>
+      </c>
+      <c r="R86" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87" s="5">
         <v>20810</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -5549,44 +5654,45 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I87" s="5">
         <v>600</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K87" s="5">
         <v>0</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O87" s="5"/>
-      <c r="P87" s="5">
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5">
         <v>2</v>
       </c>
-      <c r="Q87" s="5">
+      <c r="R87" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" s="5">
         <v>20811</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -5594,44 +5700,45 @@
         <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I88" s="5">
         <v>1200</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K88" s="5">
         <v>0</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O88" s="5"/>
-      <c r="P88" s="5">
-        <v>1</v>
-      </c>
+      <c r="P88" s="5"/>
       <c r="Q88" s="5">
+        <v>1</v>
+      </c>
+      <c r="R88" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89" s="5">
         <v>20812</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -5639,46 +5746,47 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I89" s="5">
         <v>1080</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K89" s="5">
         <v>8000</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O89" s="5"/>
-      <c r="P89" s="5">
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5">
         <v>2</v>
       </c>
-      <c r="Q89" s="5">
+      <c r="R89" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" s="5">
         <v>20813</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -5686,44 +5794,45 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I90" s="5">
         <v>480</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K90" s="5">
         <v>0</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O90" s="5"/>
-      <c r="P90" s="5">
-        <v>1</v>
-      </c>
+      <c r="P90" s="5"/>
       <c r="Q90" s="5">
+        <v>1</v>
+      </c>
+      <c r="R90" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" s="5">
         <v>20814</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -5731,46 +5840,47 @@
         <v>8</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I91" s="5">
         <v>1080</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K91" s="5">
         <v>8000</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O91" s="5"/>
-      <c r="P91" s="5">
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5">
         <v>2</v>
       </c>
-      <c r="Q91" s="5">
+      <c r="R91" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" s="6">
         <v>31101</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -5778,40 +5888,41 @@
         <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I92" s="6">
         <v>20</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="6"/>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="6">
         <v>31102</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -5819,40 +5930,41 @@
         <v>1</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I93" s="6">
         <v>30</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="6"/>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="6">
         <v>31103</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -5860,40 +5972,41 @@
         <v>1</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I94" s="6">
         <v>60</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94" s="6">
         <v>0</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="6"/>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="6">
         <v>32101</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -5901,40 +6014,41 @@
         <v>2</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I95" s="6">
         <v>120</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" s="6"/>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="6">
         <v>32102</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -5942,40 +6056,41 @@
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I96" s="6">
         <v>180</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96" s="6">
         <v>0</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="6">
         <v>32103</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -5983,33 +6098,34 @@
         <v>2</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I97" s="6">
         <v>300</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K97" s="6">
         <v>0</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="H10:H97">

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="166">
   <si>
     <t>任务ID</t>
   </si>
@@ -148,232 +148,232 @@
     <t>Collect_WuWood</t>
   </si>
   <si>
+    <t>Item|1002|20</t>
+  </si>
+  <si>
+    <t>OnTaskManualFinished</t>
+  </si>
+  <si>
+    <t>ManualFinish</t>
+  </si>
+  <si>
+    <t>采点石</t>
+  </si>
+  <si>
+    <t>石材也是必不可少的建材，后山有不少。</t>
+  </si>
+  <si>
+    <t>Collect_QingRock</t>
+  </si>
+  <si>
+    <t>Item|1001|20</t>
+  </si>
+  <si>
+    <t>讲武堂升级</t>
+  </si>
+  <si>
+    <t>小破庙实在有点寒酸，该装修装修了。</t>
+  </si>
+  <si>
+    <t>Progress_BuildLevel</t>
+  </si>
+  <si>
     <t>Coin|200</t>
   </si>
   <si>
-    <t>OnTaskManualFinished</t>
-  </si>
-  <si>
-    <t>ManualFinish</t>
-  </si>
-  <si>
-    <t>采点石</t>
-  </si>
-  <si>
-    <t>石材也是必不可少的建材，后山有不少。</t>
-  </si>
-  <si>
-    <t>Collect_QingRock</t>
-  </si>
-  <si>
     <t>盖个房</t>
   </si>
   <si>
+    <t>壮大门派的第一步，先盖三间屋舍。</t>
+  </si>
+  <si>
+    <t>Progress_BuildCount</t>
+  </si>
+  <si>
+    <t>盖个仓库</t>
+  </si>
+  <si>
     <t>壮大门派的第一步，先盖够三间屋舍。</t>
   </si>
   <si>
-    <t>Progress_Build</t>
-  </si>
-  <si>
-    <t>10050;10051</t>
-  </si>
-  <si>
-    <t>招募</t>
-  </si>
-  <si>
-    <t>小破庙实在有点寒酸，该装修装修了。</t>
+    <t>Collect_Bear</t>
+  </si>
+  <si>
+    <t>战斗-剿匪</t>
+  </si>
+  <si>
+    <t>山贼下山来了，剿灭他们为民除害</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>104|80;105|80;105|80;105|80;101|150</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>砍伐乌木</t>
+  </si>
+  <si>
+    <t>村西边的乌木长得快，木质好，盖房子最合适。</t>
+  </si>
+  <si>
+    <t>开采青石</t>
+  </si>
+  <si>
+    <t>山脚下的青石遍地都是，可以挖来做基地或者砌墙。</t>
+  </si>
+  <si>
+    <t>Item|1002|100</t>
+  </si>
+  <si>
+    <t>Item|1001|100</t>
+  </si>
+  <si>
+    <t>狩猎野猪</t>
+  </si>
+  <si>
+    <t>池塘边总有野猪出没伤人，去宰了它给兄弟们加餐。</t>
+  </si>
+  <si>
+    <t>Collect_Boar</t>
+  </si>
+  <si>
+    <t>Item|1009|5_8</t>
+  </si>
+  <si>
+    <t>开采黑铁</t>
+  </si>
+  <si>
+    <t>打铁当然先要有铁，可以去后山找找看。</t>
+  </si>
+  <si>
+    <t>Collect_Iron</t>
+  </si>
+  <si>
+    <t>Item|1006|5_8</t>
+  </si>
+  <si>
+    <t>Item|1002|250</t>
+  </si>
+  <si>
+    <t>Item|1001|250</t>
+  </si>
+  <si>
+    <t>砍伐银木</t>
+  </si>
+  <si>
+    <t>银木是高级木材，要很久才能长成一棵。</t>
+  </si>
+  <si>
+    <t>Collect_SilverWood</t>
+  </si>
+  <si>
+    <t>Item|1004|20</t>
+  </si>
+  <si>
+    <t>Item|1007|1_2</t>
+  </si>
+  <si>
+    <t>开采云岩</t>
+  </si>
+  <si>
+    <t>云岩的表面有一种像云一样的花纹，故名云岩。</t>
+  </si>
+  <si>
+    <t>Collect_CloudRock</t>
+  </si>
+  <si>
+    <t>Item|1003|20</t>
+  </si>
+  <si>
+    <t>Item|1008|1_2</t>
+  </si>
+  <si>
+    <t>捕捉青蛇</t>
+  </si>
+  <si>
+    <t>师娘特别怕蛇，看到了就一定要打死。</t>
+  </si>
+  <si>
+    <t>Collect_Snake</t>
+  </si>
+  <si>
+    <t>Item|1015|2_3</t>
+  </si>
+  <si>
+    <t>Item|1022|1_2</t>
+  </si>
+  <si>
+    <t>捕捉鸡</t>
+  </si>
+  <si>
+    <t>庄上散养了很多鸡，想吃就直接去抓。</t>
+  </si>
+  <si>
+    <t>Collect_Chicken</t>
+  </si>
+  <si>
+    <t>Item|1014|2_3</t>
+  </si>
+  <si>
+    <t>Item|1009|8_12</t>
+  </si>
+  <si>
+    <t>Item|1006|8_12</t>
+  </si>
+  <si>
+    <t>Item|1002|800</t>
+  </si>
+  <si>
+    <t>Item|1001|800</t>
+  </si>
+  <si>
+    <t>Item|1004|100</t>
+  </si>
+  <si>
+    <t>Item|1007|2_3</t>
+  </si>
+  <si>
+    <t>Item|1003|100</t>
+  </si>
+  <si>
+    <t>Item|1008|2_3</t>
+  </si>
+  <si>
+    <t>打古井水</t>
+  </si>
+  <si>
+    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
+  </si>
+  <si>
+    <t>Collect_Well</t>
+  </si>
+  <si>
+    <t>Item|1018|1_2</t>
+  </si>
+  <si>
+    <t>采集紫藤</t>
+  </si>
+  <si>
+    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
+  </si>
+  <si>
+    <t>Collect_Vine</t>
+  </si>
+  <si>
+    <t>Item|1005|8_12</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
   </si>
   <si>
     <t>Collect_Fish</t>
-  </si>
-  <si>
-    <t>讲武堂升级</t>
-  </si>
-  <si>
-    <t>把讲武堂升到2级。</t>
-  </si>
-  <si>
-    <t>Collect_Bear</t>
-  </si>
-  <si>
-    <t>战斗-剿匪</t>
-  </si>
-  <si>
-    <t>山贼下山来了，剿灭他们为民除害</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>104|80;105|80;105|80;105|80;101|150</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>砍伐乌木</t>
-  </si>
-  <si>
-    <t>村西边的乌木长得快，木质好，盖房子最合适。</t>
-  </si>
-  <si>
-    <t>Item|1002|20</t>
-  </si>
-  <si>
-    <t>开采青石</t>
-  </si>
-  <si>
-    <t>山脚下的青石遍地都是，可以挖来做基地或者砌墙。</t>
-  </si>
-  <si>
-    <t>Item|1001|20</t>
-  </si>
-  <si>
-    <t>Item|1002|100</t>
-  </si>
-  <si>
-    <t>Item|1001|100</t>
-  </si>
-  <si>
-    <t>狩猎野猪</t>
-  </si>
-  <si>
-    <t>池塘边总有野猪出没伤人，去宰了它给兄弟们加餐。</t>
-  </si>
-  <si>
-    <t>Collect_Boar</t>
-  </si>
-  <si>
-    <t>Item|1009|5_8</t>
-  </si>
-  <si>
-    <t>开采黑铁</t>
-  </si>
-  <si>
-    <t>打铁当然先要有铁，可以去后山找找看。</t>
-  </si>
-  <si>
-    <t>Collect_Iron</t>
-  </si>
-  <si>
-    <t>Item|1006|5_8</t>
-  </si>
-  <si>
-    <t>Item|1002|250</t>
-  </si>
-  <si>
-    <t>Item|1001|250</t>
-  </si>
-  <si>
-    <t>砍伐银木</t>
-  </si>
-  <si>
-    <t>银木是高级木材，要很久才能长成一棵。</t>
-  </si>
-  <si>
-    <t>Collect_SilverWood</t>
-  </si>
-  <si>
-    <t>Item|1004|20</t>
-  </si>
-  <si>
-    <t>Item|1007|1_2</t>
-  </si>
-  <si>
-    <t>开采云岩</t>
-  </si>
-  <si>
-    <t>云岩的表面有一种像云一样的花纹，故名云岩。</t>
-  </si>
-  <si>
-    <t>Collect_CloudRock</t>
-  </si>
-  <si>
-    <t>Item|1003|20</t>
-  </si>
-  <si>
-    <t>Item|1008|1_2</t>
-  </si>
-  <si>
-    <t>捕捉青蛇</t>
-  </si>
-  <si>
-    <t>师娘特别怕蛇，看到了就一定要打死。</t>
-  </si>
-  <si>
-    <t>Collect_Snake</t>
-  </si>
-  <si>
-    <t>Item|1015|2_3</t>
-  </si>
-  <si>
-    <t>Item|1022|1_2</t>
-  </si>
-  <si>
-    <t>捕捉鸡</t>
-  </si>
-  <si>
-    <t>庄上散养了很多鸡，想吃就直接去抓。</t>
-  </si>
-  <si>
-    <t>Collect_Chicken</t>
-  </si>
-  <si>
-    <t>Item|1014|2_3</t>
-  </si>
-  <si>
-    <t>Item|1009|8_12</t>
-  </si>
-  <si>
-    <t>Item|1006|8_12</t>
-  </si>
-  <si>
-    <t>Item|1002|800</t>
-  </si>
-  <si>
-    <t>Item|1001|800</t>
-  </si>
-  <si>
-    <t>Item|1004|100</t>
-  </si>
-  <si>
-    <t>Item|1007|2_3</t>
-  </si>
-  <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1008|2_3</t>
-  </si>
-  <si>
-    <t>打古井水</t>
-  </si>
-  <si>
-    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
-  </si>
-  <si>
-    <t>Collect_Well</t>
-  </si>
-  <si>
-    <t>Item|1018|1_2</t>
-  </si>
-  <si>
-    <t>采集紫藤</t>
-  </si>
-  <si>
-    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
-  </si>
-  <si>
-    <t>Collect_Vine</t>
-  </si>
-  <si>
-    <t>Item|1005|8_12</t>
-  </si>
-  <si>
-    <t>钓鱼</t>
-  </si>
-  <si>
-    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
   </si>
   <si>
     <t>Item|1012|5</t>
@@ -522,10 +522,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -544,7 +544,121 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -560,7 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,120 +682,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,13 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +738,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,109 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +864,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,11 +935,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,15 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -979,41 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,16 +994,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,136 +1050,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,24 +1525,21 @@
   <sheetPr/>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="1" max="5" width="6.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="52.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.0833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="21" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.125" customWidth="1"/>
@@ -1797,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>43</v>
@@ -1849,10 +1846,10 @@
         <v>48</v>
       </c>
       <c r="I6" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1892,19 +1889,17 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="3">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1939,24 +1934,22 @@
         <v>39</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
+      <c r="D8" s="3">
+        <v>10050</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="3">
-        <v>120</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1994,19 +1987,19 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3">
         <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2044,19 +2037,19 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2070,7 +2063,7 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
@@ -2090,7 +2083,7 @@
         <v>20101</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2098,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="4">
         <v>60</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -2142,7 +2135,7 @@
         <v>20102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2162,7 +2155,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2194,7 +2187,7 @@
         <v>20201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2202,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>42</v>
@@ -2214,7 +2207,7 @@
         <v>180</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -2240,7 +2233,7 @@
         <v>20202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2260,7 +2253,7 @@
         <v>180</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -2286,7 +2279,7 @@
         <v>20203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2294,19 +2287,19 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I15" s="5">
         <v>180</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -2332,7 +2325,7 @@
         <v>20204</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2340,19 +2333,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="I16" s="5">
         <v>180</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -2378,7 +2371,7 @@
         <v>20301</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2386,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>42</v>
@@ -2398,7 +2391,7 @@
         <v>300</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -2424,7 +2417,7 @@
         <v>20302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2444,7 +2437,7 @@
         <v>300</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -2470,7 +2463,7 @@
         <v>20303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2478,25 +2471,25 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I19" s="4">
         <v>300</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="4">
         <v>6000</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>44</v>
@@ -2518,7 +2511,7 @@
         <v>20304</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2526,25 +2519,25 @@
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I20" s="4">
         <v>300</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="4">
         <v>6000</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>44</v>
@@ -2566,7 +2559,7 @@
         <v>20305</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2574,25 +2567,25 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I21" s="4">
         <v>480</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="4">
         <v>6000</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>44</v>
@@ -2614,7 +2607,7 @@
         <v>20306</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2622,19 +2615,19 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I22" s="4">
         <v>300</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -2660,7 +2653,7 @@
         <v>20307</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2668,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="I23" s="4">
         <v>300</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -2706,7 +2699,7 @@
         <v>20308</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2714,19 +2707,19 @@
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I24" s="4">
         <v>300</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -2752,7 +2745,7 @@
         <v>20401</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2760,10 +2753,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>42</v>
@@ -2772,7 +2765,7 @@
         <v>600</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="5">
         <v>0</v>
@@ -2798,7 +2791,7 @@
         <v>20402</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2818,7 +2811,7 @@
         <v>600</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
@@ -2844,7 +2837,7 @@
         <v>20403</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2852,25 +2845,25 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I27" s="5">
         <v>600</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="5">
         <v>7000</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>44</v>
@@ -2892,7 +2885,7 @@
         <v>20404</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2900,25 +2893,25 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I28" s="5">
         <v>600</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" s="5">
         <v>7000</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>44</v>
@@ -2940,7 +2933,7 @@
         <v>20405</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2948,25 +2941,25 @@
         <v>4</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="I29" s="5">
         <v>480</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="5">
         <v>6000</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>44</v>
@@ -2988,7 +2981,7 @@
         <v>20406</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2996,19 +2989,19 @@
         <v>4</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="I30" s="5">
         <v>300</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K30" s="5">
         <v>0</v>
@@ -3034,7 +3027,7 @@
         <v>20407</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3042,19 +3035,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I31" s="5">
         <v>300</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K31" s="5">
         <v>0</v>
@@ -3080,7 +3073,7 @@
         <v>20408</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3088,19 +3081,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="I32" s="5">
         <v>300</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
@@ -3126,7 +3119,7 @@
         <v>20409</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3134,19 +3127,19 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="I33" s="5">
         <v>600</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
@@ -3172,7 +3165,7 @@
         <v>20410</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3180,19 +3173,19 @@
         <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I34" s="5">
         <v>300</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K34" s="5">
         <v>0</v>
@@ -3218,7 +3211,7 @@
         <v>20411</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3226,13 +3219,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I35" s="5">
         <v>480</v>
@@ -3264,7 +3257,7 @@
         <v>20501</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3272,10 +3265,10 @@
         <v>5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>42</v>
@@ -3310,7 +3303,7 @@
         <v>20502</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3356,7 +3349,7 @@
         <v>20503</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3364,13 +3357,13 @@
         <v>5</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I38" s="4">
         <v>900</v>
@@ -3404,7 +3397,7 @@
         <v>20504</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3412,13 +3405,13 @@
         <v>5</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I39" s="4">
         <v>900</v>
@@ -3452,7 +3445,7 @@
         <v>20505</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3460,13 +3453,13 @@
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I40" s="4">
         <v>720</v>
@@ -3500,7 +3493,7 @@
         <v>20506</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3508,13 +3501,13 @@
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I41" s="4">
         <v>600</v>
@@ -3546,7 +3539,7 @@
         <v>20507</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3554,13 +3547,13 @@
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="I42" s="4">
         <v>480</v>
@@ -3592,7 +3585,7 @@
         <v>20508</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3600,13 +3593,13 @@
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I43" s="4">
         <v>480</v>
@@ -3638,7 +3631,7 @@
         <v>20509</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3646,19 +3639,19 @@
         <v>5</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="I44" s="4">
         <v>600</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
@@ -3684,7 +3677,7 @@
         <v>20510</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3692,13 +3685,13 @@
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="I45" s="4">
         <v>480</v>
@@ -3730,7 +3723,7 @@
         <v>20511</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3776,7 +3769,7 @@
         <v>20512</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3824,7 +3817,7 @@
         <v>20513</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3832,13 +3825,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I48" s="4">
         <v>480</v>
@@ -3870,7 +3863,7 @@
         <v>20514</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3884,7 +3877,7 @@
         <v>142</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I49" s="4">
         <v>1080</v>
@@ -3918,7 +3911,7 @@
         <v>20601</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3926,10 +3919,10 @@
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>42</v>
@@ -3964,7 +3957,7 @@
         <v>20602</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -4010,7 +4003,7 @@
         <v>20603</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -4018,13 +4011,13 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I52" s="5">
         <v>1200</v>
@@ -4058,7 +4051,7 @@
         <v>20604</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -4066,13 +4059,13 @@
         <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I53" s="5">
         <v>1200</v>
@@ -4106,7 +4099,7 @@
         <v>20605</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -4114,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="I54" s="5">
         <v>720</v>
@@ -4154,7 +4147,7 @@
         <v>20606</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4162,13 +4155,13 @@
         <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="I55" s="5">
         <v>600</v>
@@ -4200,7 +4193,7 @@
         <v>20607</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4208,13 +4201,13 @@
         <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I56" s="5">
         <v>480</v>
@@ -4246,7 +4239,7 @@
         <v>20608</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4254,13 +4247,13 @@
         <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="I57" s="5">
         <v>600</v>
@@ -4292,7 +4285,7 @@
         <v>20609</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4300,19 +4293,19 @@
         <v>6</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="I58" s="5">
         <v>600</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K58" s="5">
         <v>0</v>
@@ -4338,7 +4331,7 @@
         <v>20610</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4346,13 +4339,13 @@
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I59" s="5">
         <v>600</v>
@@ -4384,7 +4377,7 @@
         <v>20611</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4430,7 +4423,7 @@
         <v>20612</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4478,7 +4471,7 @@
         <v>20613</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4486,13 +4479,13 @@
         <v>6</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I62" s="5">
         <v>480</v>
@@ -4524,7 +4517,7 @@
         <v>20614</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4538,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I63" s="5">
         <v>1080</v>
@@ -4572,7 +4565,7 @@
         <v>20701</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4580,10 +4573,10 @@
         <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>42</v>
@@ -4618,7 +4611,7 @@
         <v>20702</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4664,7 +4657,7 @@
         <v>20703</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4672,13 +4665,13 @@
         <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I66" s="4">
         <v>1500</v>
@@ -4712,7 +4705,7 @@
         <v>20704</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -4720,13 +4713,13 @@
         <v>7</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I67" s="4">
         <v>1500</v>
@@ -4760,7 +4753,7 @@
         <v>20705</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -4768,13 +4761,13 @@
         <v>7</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I68" s="4">
         <v>720</v>
@@ -4808,7 +4801,7 @@
         <v>20706</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -4816,13 +4809,13 @@
         <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I69" s="4">
         <v>600</v>
@@ -4854,7 +4847,7 @@
         <v>20707</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -4862,13 +4855,13 @@
         <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="I70" s="4">
         <v>480</v>
@@ -4900,7 +4893,7 @@
         <v>20708</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4908,13 +4901,13 @@
         <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I71" s="4">
         <v>600</v>
@@ -4946,7 +4939,7 @@
         <v>20709</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4954,19 +4947,19 @@
         <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="I72" s="4">
         <v>600</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
@@ -4992,7 +4985,7 @@
         <v>20710</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5000,13 +4993,13 @@
         <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="I73" s="4">
         <v>600</v>
@@ -5038,7 +5031,7 @@
         <v>20711</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5084,7 +5077,7 @@
         <v>20712</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5132,7 +5125,7 @@
         <v>20713</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5140,13 +5133,13 @@
         <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I76" s="4">
         <v>480</v>
@@ -5178,7 +5171,7 @@
         <v>20714</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5192,7 +5185,7 @@
         <v>142</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I77" s="4">
         <v>1080</v>
@@ -5226,7 +5219,7 @@
         <v>20801</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -5234,10 +5227,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>42</v>
@@ -5272,7 +5265,7 @@
         <v>20802</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -5318,7 +5311,7 @@
         <v>20803</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -5326,13 +5319,13 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I80" s="5">
         <v>1800</v>
@@ -5366,7 +5359,7 @@
         <v>20804</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5374,13 +5367,13 @@
         <v>8</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I81" s="5">
         <v>1800</v>
@@ -5414,7 +5407,7 @@
         <v>20805</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -5422,13 +5415,13 @@
         <v>8</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="I82" s="5">
         <v>720</v>
@@ -5462,7 +5455,7 @@
         <v>20806</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -5470,13 +5463,13 @@
         <v>8</v>
       </c>
       <c r="F83" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="I83" s="5">
         <v>600</v>
@@ -5508,7 +5501,7 @@
         <v>20807</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -5516,13 +5509,13 @@
         <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I84" s="5">
         <v>480</v>
@@ -5554,7 +5547,7 @@
         <v>20808</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -5562,13 +5555,13 @@
         <v>8</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="I85" s="5">
         <v>600</v>
@@ -5600,7 +5593,7 @@
         <v>20809</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -5608,19 +5601,19 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="I86" s="5">
         <v>600</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
@@ -5646,7 +5639,7 @@
         <v>20810</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -5654,13 +5647,13 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I87" s="5">
         <v>600</v>
@@ -5692,7 +5685,7 @@
         <v>20811</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -5738,7 +5731,7 @@
         <v>20812</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -5786,7 +5779,7 @@
         <v>20813</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -5794,13 +5787,13 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I90" s="5">
         <v>480</v>
@@ -5832,7 +5825,7 @@
         <v>20814</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -5846,7 +5839,7 @@
         <v>142</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I91" s="5">
         <v>1080</v>
@@ -5894,13 +5887,13 @@
         <v>163</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I92" s="6">
         <v>20</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
@@ -5936,13 +5929,13 @@
         <v>165</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I93" s="6">
         <v>30</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
@@ -5972,19 +5965,19 @@
         <v>1</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I94" s="6">
         <v>60</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K94" s="6">
         <v>0</v>
@@ -6020,13 +6013,13 @@
         <v>163</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I95" s="6">
         <v>120</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
@@ -6062,13 +6055,13 @@
         <v>165</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I96" s="6">
         <v>180</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K96" s="6">
         <v>0</v>
@@ -6098,19 +6091,19 @@
         <v>2</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I97" s="6">
         <v>300</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K97" s="6">
         <v>0</v>
@@ -6128,9 +6121,6 @@
       <c r="R97" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="H10:H97">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$H$10:$H$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$H$10:$H$105</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="189">
   <si>
     <t>任务ID</t>
   </si>
@@ -289,112 +289,184 @@
     <t>Battle</t>
   </si>
   <si>
+    <t>Item|3001|1</t>
+  </si>
+  <si>
     <t>9901|20;9902|20;9902|20;9903|20;9903|20</t>
   </si>
   <si>
+    <t>Item|1002|250</t>
+  </si>
+  <si>
+    <t>Item|1001|250</t>
+  </si>
+  <si>
+    <t>砍伐银木</t>
+  </si>
+  <si>
+    <t>银木是高级木材，要很久才能长成一棵。</t>
+  </si>
+  <si>
+    <t>Collect_SilverWood</t>
+  </si>
+  <si>
+    <t>Item|1004|20</t>
+  </si>
+  <si>
+    <t>Item|1007|1_2</t>
+  </si>
+  <si>
+    <t>开采云岩</t>
+  </si>
+  <si>
+    <t>云岩的表面有一种像云一样的花纹，故名云岩。</t>
+  </si>
+  <si>
+    <t>Collect_CloudRock</t>
+  </si>
+  <si>
+    <t>Item|1003|20</t>
+  </si>
+  <si>
+    <t>Item|1008|1_2</t>
+  </si>
+  <si>
+    <t>捕捉鸡</t>
+  </si>
+  <si>
+    <t>庄上散养了很多鸡，想吃就直接去抓。</t>
+  </si>
+  <si>
+    <t>Collect_Chicken</t>
+  </si>
+  <si>
+    <t>Item|1014|2_3</t>
+  </si>
+  <si>
+    <t>Item|1009|8_12</t>
+  </si>
+  <si>
+    <t>Item|1006|8_12</t>
+  </si>
+  <si>
     <t>抓刺客</t>
   </si>
   <si>
     <t>听说昨晚村长被行刺了，在来福酒店可以找到这帮人。</t>
   </si>
   <si>
+    <t>Item|3002|1</t>
+  </si>
+  <si>
     <t>9904|20;9904|20;9904|20;9904|20;9904|20</t>
   </si>
   <si>
+    <t>Item|1002|800</t>
+  </si>
+  <si>
+    <t>Item|1001|800</t>
+  </si>
+  <si>
+    <t>Item|1004|100</t>
+  </si>
+  <si>
+    <t>Item|1007|2_3</t>
+  </si>
+  <si>
+    <t>Item|1003|100</t>
+  </si>
+  <si>
+    <t>Item|1008|2_3</t>
+  </si>
+  <si>
+    <t>捕捉青蛇</t>
+  </si>
+  <si>
+    <t>师娘特别怕蛇，看到了就一定要打死。</t>
+  </si>
+  <si>
+    <t>Collect_Snake</t>
+  </si>
+  <si>
+    <t>Item|1015|2_3</t>
+  </si>
+  <si>
+    <t>Item|1022|1_2</t>
+  </si>
+  <si>
+    <t>采集紫藤</t>
+  </si>
+  <si>
+    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
+  </si>
+  <si>
+    <t>Collect_Vine</t>
+  </si>
+  <si>
+    <t>Item|1005|8_12</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
+  </si>
+  <si>
+    <t>Collect_Fish</t>
+  </si>
+  <si>
+    <t>Item|1012|5</t>
+  </si>
+  <si>
+    <t>Item|3102|1</t>
+  </si>
+  <si>
     <t>战倭寇</t>
   </si>
   <si>
     <t>倭人犯我村民久已，卧榻之侧岂容他人猖狂。</t>
   </si>
   <si>
+    <t>Item|3003|1</t>
+  </si>
+  <si>
+    <t>Item|3101|1</t>
+  </si>
+  <si>
     <t>9905|20;9906|20;9906|20;9907|20;9907|20</t>
   </si>
   <si>
-    <t>Item|1002|250</t>
-  </si>
-  <si>
-    <t>Item|1001|250</t>
-  </si>
-  <si>
-    <t>砍伐银木</t>
-  </si>
-  <si>
-    <t>银木是高级木材，要很久才能长成一棵。</t>
-  </si>
-  <si>
-    <t>Collect_SilverWood</t>
-  </si>
-  <si>
-    <t>Item|1004|20</t>
-  </si>
-  <si>
-    <t>Item|1007|1_2</t>
-  </si>
-  <si>
-    <t>开采云岩</t>
-  </si>
-  <si>
-    <t>云岩的表面有一种像云一样的花纹，故名云岩。</t>
-  </si>
-  <si>
-    <t>Collect_CloudRock</t>
-  </si>
-  <si>
-    <t>Item|1003|20</t>
-  </si>
-  <si>
-    <t>Item|1008|1_2</t>
-  </si>
-  <si>
-    <t>捕捉青蛇</t>
-  </si>
-  <si>
-    <t>师娘特别怕蛇，看到了就一定要打死。</t>
-  </si>
-  <si>
-    <t>Collect_Snake</t>
-  </si>
-  <si>
-    <t>Item|1015|2_3</t>
-  </si>
-  <si>
-    <t>Item|1022|1_2</t>
-  </si>
-  <si>
-    <t>捕捉鸡</t>
-  </si>
-  <si>
-    <t>庄上散养了很多鸡，想吃就直接去抓。</t>
-  </si>
-  <si>
-    <t>Collect_Chicken</t>
-  </si>
-  <si>
-    <t>Item|1014|2_3</t>
-  </si>
-  <si>
-    <t>Item|1009|8_12</t>
-  </si>
-  <si>
-    <t>Item|1006|8_12</t>
-  </si>
-  <si>
-    <t>Item|1002|800</t>
-  </si>
-  <si>
-    <t>Item|1001|800</t>
-  </si>
-  <si>
-    <t>Item|1004|100</t>
-  </si>
-  <si>
-    <t>Item|1007|2_3</t>
-  </si>
-  <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1008|2_3</t>
+    <t>Item|1002|1500</t>
+  </si>
+  <si>
+    <t>Item|1001|1500</t>
+  </si>
+  <si>
+    <t>Item|1004|250</t>
+  </si>
+  <si>
+    <t>Item|1007|3_5</t>
+  </si>
+  <si>
+    <t>Item|1003|250</t>
+  </si>
+  <si>
+    <t>Item|1008|3_5</t>
+  </si>
+  <si>
+    <t>Item|1015|3_5</t>
+  </si>
+  <si>
+    <t>Item|1022|2_3</t>
+  </si>
+  <si>
+    <t>Item|1014|3_5</t>
+  </si>
+  <si>
+    <t>Item|1009|12_20</t>
+  </si>
+  <si>
+    <t>Item|1006|12_20</t>
   </si>
   <si>
     <t>打古井水</t>
@@ -409,66 +481,48 @@
     <t>Item|1018|1_2</t>
   </si>
   <si>
-    <t>采集紫藤</t>
-  </si>
-  <si>
-    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
-  </si>
-  <si>
-    <t>Collect_Vine</t>
-  </si>
-  <si>
-    <t>Item|1005|8_12</t>
-  </si>
-  <si>
-    <t>钓鱼</t>
-  </si>
-  <si>
-    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
-  </si>
-  <si>
-    <t>Collect_Fish</t>
-  </si>
-  <si>
-    <t>Item|1012|5</t>
-  </si>
-  <si>
-    <t>Item|1002|1500</t>
-  </si>
-  <si>
-    <t>Item|1001|1500</t>
-  </si>
-  <si>
-    <t>Item|1004|250</t>
-  </si>
-  <si>
-    <t>Item|1007|3_5</t>
-  </si>
-  <si>
-    <t>Item|1003|250</t>
-  </si>
-  <si>
-    <t>Item|1008|3_5</t>
-  </si>
-  <si>
-    <t>Item|1015|3_5</t>
-  </si>
-  <si>
-    <t>Item|1022|2_3</t>
-  </si>
-  <si>
-    <t>Item|1014|3_5</t>
-  </si>
-  <si>
-    <t>Item|1009|12_20</t>
-  </si>
-  <si>
-    <t>Item|1006|12_20</t>
-  </si>
-  <si>
     <t>Item|1005|12_20</t>
   </si>
   <si>
+    <t>狩猎熊</t>
+  </si>
+  <si>
+    <t>最近黑瞎子经常到附近村里伤人，咱们不能放任不管。</t>
+  </si>
+  <si>
+    <t>Collect_Bear</t>
+  </si>
+  <si>
+    <t>Item|1009|12_18</t>
+  </si>
+  <si>
+    <t>Item|1011|1_2</t>
+  </si>
+  <si>
+    <t>Item|1002|2500</t>
+  </si>
+  <si>
+    <t>Item|1001|2500</t>
+  </si>
+  <si>
+    <t>Item|1004|800</t>
+  </si>
+  <si>
+    <t>Item|1007|5_8</t>
+  </si>
+  <si>
+    <t>Item|1003|800</t>
+  </si>
+  <si>
+    <t>Item|1008|5_8</t>
+  </si>
+  <si>
+    <t>Item|1006|18_30</t>
+  </si>
+  <si>
+    <t>Item|1005|18_30</t>
+  </si>
+  <si>
     <t>采集灵芝</t>
   </si>
   <si>
@@ -496,45 +550,6 @@
     <t>Item|1019|1_2</t>
   </si>
   <si>
-    <t>狩猎熊</t>
-  </si>
-  <si>
-    <t>最近黑瞎子经常到附近村里伤人，咱们不能放任不管。</t>
-  </si>
-  <si>
-    <t>Collect_Bear</t>
-  </si>
-  <si>
-    <t>Item|1009|12_18</t>
-  </si>
-  <si>
-    <t>Item|1011|1_2</t>
-  </si>
-  <si>
-    <t>Item|1002|2500</t>
-  </si>
-  <si>
-    <t>Item|1001|2500</t>
-  </si>
-  <si>
-    <t>Item|1004|800</t>
-  </si>
-  <si>
-    <t>Item|1007|5_8</t>
-  </si>
-  <si>
-    <t>Item|1003|800</t>
-  </si>
-  <si>
-    <t>Item|1008|5_8</t>
-  </si>
-  <si>
-    <t>Item|1006|18_30</t>
-  </si>
-  <si>
-    <t>Item|1005|18_30</t>
-  </si>
-  <si>
     <t>Item|1004|1500</t>
   </si>
   <si>
@@ -557,12 +572,6 @@
   </si>
   <si>
     <t>Item|1008|12_20</t>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-  </si>
-  <si>
-    <t>山贼喽啰</t>
   </si>
   <si>
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
@@ -582,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -611,16 +620,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,6 +665,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -642,7 +712,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,29 +734,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,68 +758,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,25 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,115 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +870,114 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,28 +1006,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,6 +1045,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1059,44 +1093,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1109,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,140 +1121,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,9 +1272,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1594,12 +1594,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA119"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomLeft" activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -2591,14 +2591,18 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5">
         <v>80</v>
       </c>
       <c r="O17" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>48</v>
@@ -2607,7 +2611,7 @@
         <v>49</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S17" s="5">
         <v>5</v>
@@ -2617,104 +2621,108 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="5">
-        <v>20206</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="A18" s="4">
+        <v>20301</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>300</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
-        <v>80</v>
-      </c>
-      <c r="O18" s="5">
-        <v>50</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>150</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4">
+        <v>20302</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>300</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S18" s="5">
-        <v>5</v>
-      </c>
-      <c r="T18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="5">
-        <v>20207</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <v>80</v>
-      </c>
-      <c r="O19" s="5">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" s="5">
-        <v>5</v>
-      </c>
-      <c r="T19" s="5">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>150</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="4">
-        <v>20301</v>
+        <v>20303</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
@@ -2725,13 +2733,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
@@ -2741,9 +2749,11 @@
         <v>97</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4"/>
+        <v>6000</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="N20" s="4">
         <v>150</v>
       </c>
@@ -2756,15 +2766,15 @@
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="4">
-        <v>20302</v>
+        <v>20304</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>72</v>
@@ -2775,25 +2785,27 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
         <v>300</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4"/>
+        <v>6000</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="N21" s="4">
         <v>150</v>
       </c>
@@ -2806,15 +2818,15 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="4">
-        <v>20303</v>
+        <v>20305</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>72</v>
@@ -2825,27 +2837,25 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
         <v>300</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L22" s="4">
-        <v>6000</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4">
         <v>150</v>
       </c>
@@ -2858,15 +2868,15 @@
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="4">
-        <v>20304</v>
+        <v>20306</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>72</v>
@@ -2877,27 +2887,25 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
         <v>300</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L23" s="4">
-        <v>6000</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4">
         <v>150</v>
       </c>
@@ -2913,12 +2921,12 @@
         <v>2</v>
       </c>
       <c r="T23" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="4">
-        <v>20305</v>
+        <v>20307</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>72</v>
@@ -2929,27 +2937,25 @@
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L24" s="4">
-        <v>6000</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4">
         <v>150</v>
       </c>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="4">
-        <v>20306</v>
+        <v>20308</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>72</v>
@@ -2981,20 +2987,18 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>300</v>
-      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
@@ -3003,24 +3007,28 @@
       <c r="N25" s="4">
         <v>150</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4">
+        <v>120</v>
+      </c>
       <c r="P25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="S25" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4">
-        <v>20307</v>
+        <v>20309</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>72</v>
@@ -3031,20 +3039,18 @@
         <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>300</v>
-      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
@@ -3053,218 +3059,232 @@
       <c r="N26" s="4">
         <v>150</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4">
+        <v>120</v>
+      </c>
       <c r="P26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="S26" s="4">
+        <v>5</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="5">
+        <v>20401</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
+        <v>600</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>250</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5">
         <v>2</v>
       </c>
-      <c r="T26" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="4">
-        <v>20308</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
-        <v>300</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="T27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="5">
+        <v>20402</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <v>600</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>250</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5">
+        <v>2</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="5">
+        <v>20403</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <v>600</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7000</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="5">
+        <v>250</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5">
+        <v>2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="5">
+        <v>20404</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <v>600</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="5">
+        <v>7000</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <v>150</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4">
-        <v>1</v>
-      </c>
-      <c r="T27" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="4">
-        <v>20309</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>150</v>
-      </c>
-      <c r="O28" s="4">
-        <v>50</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" s="4">
-        <v>5</v>
-      </c>
-      <c r="T28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="4">
-        <v>20310</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4">
-        <v>150</v>
-      </c>
-      <c r="O29" s="4">
-        <v>50</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S29" s="4">
-        <v>5</v>
-      </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="4">
-        <v>20311</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4">
-        <v>150</v>
-      </c>
-      <c r="O30" s="4">
-        <v>50</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S30" s="4">
-        <v>5</v>
-      </c>
-      <c r="T30" s="4">
-        <v>1</v>
+      <c r="N30" s="5">
+        <v>250</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5">
+        <v>2</v>
+      </c>
+      <c r="T30" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="5">
-        <v>20401</v>
+        <v>20405</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>72</v>
@@ -3275,25 +3295,27 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5"/>
+        <v>6000</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="N31" s="5">
         <v>250</v>
       </c>
@@ -3306,15 +3328,15 @@
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="5">
-        <v>20402</v>
+        <v>20406</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>72</v>
@@ -3325,20 +3347,20 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -3356,15 +3378,15 @@
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="5">
-        <v>20403</v>
+        <v>20407</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>72</v>
@@ -3375,27 +3397,25 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L33" s="5">
-        <v>7000</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5">
         <v>250</v>
       </c>
@@ -3411,12 +3431,12 @@
         <v>2</v>
       </c>
       <c r="T33" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5">
-        <v>20404</v>
+        <v>20408</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>72</v>
@@ -3427,27 +3447,25 @@
         <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="L34" s="5">
-        <v>7000</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5">
         <v>250</v>
       </c>
@@ -3460,15 +3478,15 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="5">
-        <v>20405</v>
+        <v>20409</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>72</v>
@@ -3479,27 +3497,25 @@
         <v>4</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="L35" s="5">
-        <v>6000</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5">
         <v>250</v>
       </c>
@@ -3512,15 +3528,15 @@
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="5">
-        <v>20406</v>
+        <v>20410</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>72</v>
@@ -3531,20 +3547,20 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -3570,7 +3586,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="5">
-        <v>20407</v>
+        <v>20411</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>72</v>
@@ -3581,20 +3597,18 @@
         <v>4</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="5">
-        <v>300</v>
-      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
@@ -3603,24 +3617,28 @@
       <c r="N37" s="5">
         <v>250</v>
       </c>
-      <c r="O37" s="5"/>
+      <c r="O37" s="5">
+        <v>200</v>
+      </c>
       <c r="P37" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="S37" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T37" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="5">
-        <v>20408</v>
+        <v>20412</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>72</v>
@@ -3631,46 +3649,50 @@
         <v>4</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="5">
-        <v>300</v>
-      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5"/>
+        <v>3000</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="N38" s="5">
         <v>250</v>
       </c>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5">
+        <v>200</v>
+      </c>
       <c r="P38" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R38" s="5"/>
+      <c r="R38" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="S38" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="5">
-        <v>20409</v>
+        <v>20413</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>72</v>
@@ -3681,290 +3703,306 @@
         <v>4</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="5">
-        <v>600</v>
-      </c>
+      <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5"/>
+        <v>3000</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="N39" s="5">
         <v>250</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="O39" s="5">
+        <v>200</v>
+      </c>
       <c r="P39" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="5"/>
+      <c r="R39" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="S39" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4">
+        <v>20501</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
+        <v>900</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
+        <v>450</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4">
+        <v>2</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="4">
+        <v>20502</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
+        <v>900</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
+        <v>450</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <v>2</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="4">
+        <v>20503</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
+        <v>900</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="4">
+        <v>8000</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" s="4">
+        <v>450</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <v>2</v>
+      </c>
+      <c r="T42" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4">
+        <v>20504</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="5">
-        <v>20410</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
-        <v>4</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5">
-        <v>300</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5">
-        <v>250</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5">
+      <c r="H43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
+        <v>900</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="4">
+        <v>8000</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N43" s="4">
+        <v>450</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
         <v>2</v>
       </c>
-      <c r="T40" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="5">
-        <v>20411</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>4</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5">
-        <v>480</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5">
-        <v>250</v>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5">
-        <v>1</v>
-      </c>
-      <c r="T41" s="5">
+      <c r="T43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="4">
+        <v>20505</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>5</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
+        <v>720</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="4">
+        <v>8000</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N44" s="4">
+        <v>450</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
         <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="5">
-        <v>20412</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>4</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5">
-        <v>250</v>
-      </c>
-      <c r="O42" s="5">
-        <v>50</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S42" s="5">
-        <v>5</v>
-      </c>
-      <c r="T42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="5">
-        <v>20413</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <v>4</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5">
-        <v>250</v>
-      </c>
-      <c r="O43" s="5">
-        <v>50</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S43" s="5">
-        <v>5</v>
-      </c>
-      <c r="T43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="5">
-        <v>20414</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
-        <v>4</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5">
-        <v>250</v>
-      </c>
-      <c r="O44" s="5">
-        <v>50</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S44" s="5">
-        <v>5</v>
-      </c>
-      <c r="T44" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="4">
-        <v>20501</v>
+        <v>20506</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>72</v>
@@ -3975,20 +4013,20 @@
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -4006,15 +4044,15 @@
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="4">
-        <v>20502</v>
+        <v>20507</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>72</v>
@@ -4025,20 +4063,20 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -4059,12 +4097,12 @@
         <v>2</v>
       </c>
       <c r="T46" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="4">
-        <v>20503</v>
+        <v>20508</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>72</v>
@@ -4075,27 +4113,25 @@
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L47" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4">
         <v>450</v>
       </c>
@@ -4108,15 +4144,15 @@
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="4">
-        <v>20504</v>
+        <v>20509</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>72</v>
@@ -4127,27 +4163,25 @@
         <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L48" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="4">
         <v>450</v>
       </c>
@@ -4160,15 +4194,15 @@
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="4">
-        <v>20505</v>
+        <v>20510</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>72</v>
@@ -4179,27 +4213,25 @@
         <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L49" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="4">
         <v>450</v>
       </c>
@@ -4212,15 +4244,15 @@
       </c>
       <c r="R49" s="4"/>
       <c r="S49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="4">
-        <v>20506</v>
+        <v>20511</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>72</v>
@@ -4231,20 +4263,20 @@
         <v>5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L50" s="4">
         <v>0</v>
@@ -4270,7 +4302,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="4">
-        <v>20507</v>
+        <v>20512</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>72</v>
@@ -4281,25 +4313,27 @@
         <v>5</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4"/>
+        <v>8000</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N51" s="4">
         <v>450</v>
       </c>
@@ -4315,12 +4349,12 @@
         <v>2</v>
       </c>
       <c r="T51" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="4">
-        <v>20508</v>
+        <v>20513</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>72</v>
@@ -4331,20 +4365,18 @@
         <v>5</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="4">
-        <v>480</v>
-      </c>
+      <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -4353,24 +4385,28 @@
       <c r="N52" s="4">
         <v>450</v>
       </c>
-      <c r="O52" s="4"/>
+      <c r="O52" s="4">
+        <v>350</v>
+      </c>
       <c r="P52" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R52" s="4"/>
+      <c r="R52" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="S52" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T52" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="4">
-        <v>20509</v>
+        <v>20514</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>72</v>
@@ -4381,46 +4417,50 @@
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="4">
-        <v>600</v>
-      </c>
+      <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4"/>
+        <v>4000</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="N53" s="4">
         <v>450</v>
       </c>
-      <c r="O53" s="4"/>
+      <c r="O53" s="4">
+        <v>350</v>
+      </c>
       <c r="P53" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R53" s="4"/>
+      <c r="R53" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="S53" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="4">
-        <v>20510</v>
+        <v>20515</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>72</v>
@@ -4431,394 +4471,406 @@
         <v>5</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="4">
-        <v>480</v>
-      </c>
+      <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4"/>
+        <v>4000</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="N54" s="4">
         <v>450</v>
       </c>
-      <c r="O54" s="4"/>
+      <c r="O54" s="4">
+        <v>350</v>
+      </c>
       <c r="P54" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R54" s="4"/>
+      <c r="R54" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="S54" s="4">
+        <v>5</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="5">
+        <v>20601</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
+        <v>6</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5">
+        <v>800</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5">
         <v>2</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="5">
+        <v>20602</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
+        <v>800</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5">
+        <v>2</v>
+      </c>
+      <c r="T56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="5">
+        <v>20603</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
+        <v>6</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L57" s="5">
+        <v>9000</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N57" s="5">
+        <v>800</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5">
+        <v>2</v>
+      </c>
+      <c r="T57" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="5">
+        <v>20604</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <v>6</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="4">
-        <v>20511</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>5</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="H58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
         <v>1200</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="K58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L58" s="5">
+        <v>9000</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N58" s="5">
+        <v>800</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
+        <v>2</v>
+      </c>
+      <c r="T58" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="5">
+        <v>20605</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5">
+        <v>6</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
+        <v>720</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L59" s="5">
+        <v>8000</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N59" s="5">
+        <v>800</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5">
+        <v>1</v>
+      </c>
+      <c r="T59" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="5">
+        <v>20606</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5">
+        <v>600</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L60" s="5">
         <v>0</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4">
-        <v>450</v>
-      </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4">
-        <v>1</v>
-      </c>
-      <c r="T55" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="4">
-        <v>20512</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>5</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4">
-        <v>1080</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L56" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N56" s="4">
-        <v>450</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4">
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
+        <v>800</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5">
+        <v>1</v>
+      </c>
+      <c r="T60" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="5">
+        <v>20607</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5">
+        <v>6</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5">
+        <v>480</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
+        <v>800</v>
+      </c>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5">
         <v>2</v>
       </c>
-      <c r="T56" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="4">
-        <v>20513</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4">
-        <v>480</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4">
-        <v>450</v>
-      </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4">
-        <v>1</v>
-      </c>
-      <c r="T57" s="4">
+      <c r="T61" s="5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="4">
-        <v>20514</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4">
-        <v>5</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4">
-        <v>1080</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L58" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N58" s="4">
-        <v>450</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4">
-        <v>2</v>
-      </c>
-      <c r="T58" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="4">
-        <v>20515</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4">
-        <v>5</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4">
-        <v>450</v>
-      </c>
-      <c r="O59" s="4">
-        <v>50</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S59" s="4">
-        <v>5</v>
-      </c>
-      <c r="T59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="4">
-        <v>20516</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
-        <v>5</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4">
-        <v>450</v>
-      </c>
-      <c r="O60" s="4">
-        <v>50</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S60" s="4">
-        <v>5</v>
-      </c>
-      <c r="T60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="4">
-        <v>20517</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4">
-        <v>450</v>
-      </c>
-      <c r="O61" s="4">
-        <v>50</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S61" s="4">
-        <v>5</v>
-      </c>
-      <c r="T61" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="5">
-        <v>20601</v>
+        <v>20608</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>72</v>
@@ -4829,20 +4881,20 @@
         <v>6</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L62" s="5">
         <v>0</v>
@@ -4860,15 +4912,15 @@
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="5">
-        <v>20602</v>
+        <v>20609</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>72</v>
@@ -4879,20 +4931,20 @@
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -4910,15 +4962,15 @@
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="5">
-        <v>20603</v>
+        <v>20610</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>72</v>
@@ -4929,27 +4981,25 @@
         <v>6</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L64" s="5">
-        <v>9000</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5">
         <v>800</v>
       </c>
@@ -4965,12 +5015,12 @@
         <v>2</v>
       </c>
       <c r="T64" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="5">
-        <v>20604</v>
+        <v>20611</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>72</v>
@@ -4981,27 +5031,25 @@
         <v>6</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
         <v>1200</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L65" s="5">
-        <v>9000</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5">
         <v>800</v>
       </c>
@@ -5014,15 +5062,15 @@
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T65" s="5">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="5">
-        <v>20605</v>
+        <v>20612</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>72</v>
@@ -5033,26 +5081,26 @@
         <v>6</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L66" s="5">
         <v>8000</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="N66" s="5">
         <v>800</v>
@@ -5066,15 +5114,15 @@
       </c>
       <c r="R66" s="5"/>
       <c r="S66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66" s="5">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="5">
-        <v>20606</v>
+        <v>20613</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -5085,20 +5133,20 @@
         <v>6</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
@@ -5124,7 +5172,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="5">
-        <v>20607</v>
+        <v>20614</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>72</v>
@@ -5135,25 +5183,27 @@
         <v>6</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5"/>
+        <v>8000</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="N68" s="5">
         <v>800</v>
       </c>
@@ -5169,12 +5219,12 @@
         <v>2</v>
       </c>
       <c r="T68" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="5">
-        <v>20608</v>
+        <v>20615</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>72</v>
@@ -5185,20 +5235,18 @@
         <v>6</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="5">
-        <v>600</v>
-      </c>
+      <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="L69" s="5">
         <v>0</v>
@@ -5207,24 +5255,28 @@
       <c r="N69" s="5">
         <v>800</v>
       </c>
-      <c r="O69" s="5"/>
+      <c r="O69" s="5">
+        <v>600</v>
+      </c>
       <c r="P69" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q69" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R69" s="5"/>
+      <c r="R69" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="S69" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T69" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="5">
-        <v>20609</v>
+        <v>20616</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>72</v>
@@ -5235,46 +5287,50 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="5">
-        <v>600</v>
-      </c>
+      <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5"/>
+        <v>5000</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="N70" s="5">
         <v>800</v>
       </c>
-      <c r="O70" s="5"/>
+      <c r="O70" s="5">
+        <v>600</v>
+      </c>
       <c r="P70" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R70" s="5"/>
+      <c r="R70" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="S70" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T70" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="5">
-        <v>20610</v>
+        <v>20617</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>72</v>
@@ -5285,394 +5341,406 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I71" s="5"/>
-      <c r="J71" s="5">
-        <v>600</v>
-      </c>
+      <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5"/>
+        <v>5000</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="N71" s="5">
         <v>800</v>
       </c>
-      <c r="O71" s="5"/>
+      <c r="O71" s="5">
+        <v>600</v>
+      </c>
       <c r="P71" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q71" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R71" s="5"/>
+      <c r="R71" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="S71" s="5">
+        <v>5</v>
+      </c>
+      <c r="T71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="4">
+        <v>20701</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4">
         <v>2</v>
       </c>
-      <c r="T71" s="5">
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="4">
+        <v>20702</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4">
+        <v>2</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="4">
+        <v>20703</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4">
+        <v>7</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L74" s="4">
+        <v>9500</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4">
+        <v>3</v>
+      </c>
+      <c r="T74" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="4">
+        <v>20704</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="5">
-        <v>20611</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5">
-        <v>6</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5">
-        <v>1200</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L72" s="5">
+      <c r="H75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" s="4">
+        <v>9500</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4">
+        <v>3</v>
+      </c>
+      <c r="T75" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="4">
+        <v>20705</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4">
+        <v>720</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L76" s="4">
+        <v>9000</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N76" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+      <c r="T76" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="4">
+        <v>20706</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
+        <v>600</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L77" s="4">
         <v>0</v>
       </c>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5">
-        <v>800</v>
-      </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5">
-        <v>1</v>
-      </c>
-      <c r="T72" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="5">
-        <v>20612</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5">
-        <v>6</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5">
-        <v>1080</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L73" s="5">
-        <v>8000</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N73" s="5">
-        <v>800</v>
-      </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="4">
+        <v>20707</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
+        <v>480</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4">
         <v>2</v>
       </c>
-      <c r="T73" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="5">
-        <v>20613</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5">
-        <v>6</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5">
-        <v>480</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L74" s="5">
-        <v>0</v>
-      </c>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5">
-        <v>800</v>
-      </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q74" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5">
-        <v>1</v>
-      </c>
-      <c r="T74" s="5">
+      <c r="T78" s="4">
         <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="5">
-        <v>20614</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5">
-        <v>6</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5">
-        <v>1080</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L75" s="5">
-        <v>8000</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N75" s="5">
-        <v>800</v>
-      </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q75" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5">
-        <v>2</v>
-      </c>
-      <c r="T75" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="5">
-        <v>20615</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5">
-        <v>6</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5">
-        <v>800</v>
-      </c>
-      <c r="O76" s="5">
-        <v>50</v>
-      </c>
-      <c r="P76" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q76" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S76" s="5">
-        <v>5</v>
-      </c>
-      <c r="T76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="5">
-        <v>20616</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5">
-        <v>6</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5">
-        <v>800</v>
-      </c>
-      <c r="O77" s="5">
-        <v>50</v>
-      </c>
-      <c r="P77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R77" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S77" s="5">
-        <v>5</v>
-      </c>
-      <c r="T77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="5">
-        <v>20617</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5">
-        <v>6</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5">
-        <v>800</v>
-      </c>
-      <c r="O78" s="5">
-        <v>50</v>
-      </c>
-      <c r="P78" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S78" s="5">
-        <v>5</v>
-      </c>
-      <c r="T78" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="4">
-        <v>20701</v>
+        <v>20708</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>72</v>
@@ -5683,20 +5751,20 @@
         <v>7</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
@@ -5714,15 +5782,15 @@
       </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T79" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="4">
-        <v>20702</v>
+        <v>20709</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>72</v>
@@ -5733,20 +5801,20 @@
         <v>7</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -5764,15 +5832,15 @@
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T80" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="4">
-        <v>20703</v>
+        <v>20710</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>72</v>
@@ -5783,27 +5851,25 @@
         <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L81" s="4">
-        <v>9500</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4">
         <v>2000</v>
       </c>
@@ -5816,15 +5882,15 @@
       </c>
       <c r="R81" s="4"/>
       <c r="S81" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T81" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="4">
-        <v>20704</v>
+        <v>20711</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>72</v>
@@ -5835,27 +5901,25 @@
         <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L82" s="4">
-        <v>9500</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4"/>
       <c r="N82" s="4">
         <v>2000</v>
       </c>
@@ -5868,15 +5932,15 @@
       </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82" s="4">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="4">
-        <v>20705</v>
+        <v>20712</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>72</v>
@@ -5887,26 +5951,26 @@
         <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L83" s="4">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="N83" s="4">
         <v>2000</v>
@@ -5920,15 +5984,15 @@
       </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T83" s="4">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="4">
-        <v>20706</v>
+        <v>20713</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>72</v>
@@ -5939,20 +6003,20 @@
         <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L84" s="4">
         <v>0</v>
@@ -5978,7 +6042,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="4">
-        <v>20707</v>
+        <v>20714</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>72</v>
@@ -5989,25 +6053,27 @@
         <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L85" s="4">
-        <v>0</v>
-      </c>
-      <c r="M85" s="4"/>
+        <v>8000</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N85" s="4">
         <v>2000</v>
       </c>
@@ -6023,12 +6089,12 @@
         <v>2</v>
       </c>
       <c r="T85" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="4">
-        <v>20708</v>
+        <v>20715</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>72</v>
@@ -6039,20 +6105,18 @@
         <v>7</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="4">
-        <v>600</v>
-      </c>
+      <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="L86" s="4">
         <v>0</v>
@@ -6061,24 +6125,28 @@
       <c r="N86" s="4">
         <v>2000</v>
       </c>
-      <c r="O86" s="4"/>
+      <c r="O86" s="4">
+        <v>1200</v>
+      </c>
       <c r="P86" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R86" s="4"/>
+      <c r="R86" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="S86" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T86" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="4">
-        <v>20709</v>
+        <v>20716</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>72</v>
@@ -6089,46 +6157,50 @@
         <v>7</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="4">
-        <v>600</v>
-      </c>
+      <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L87" s="4">
-        <v>0</v>
-      </c>
-      <c r="M87" s="4"/>
+        <v>6000</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="N87" s="4">
         <v>2000</v>
       </c>
-      <c r="O87" s="4"/>
+      <c r="O87" s="4">
+        <v>1200</v>
+      </c>
       <c r="P87" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q87" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R87" s="4"/>
+      <c r="R87" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="S87" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T87" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="4">
-        <v>20710</v>
+        <v>20717</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>72</v>
@@ -6139,394 +6211,406 @@
         <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="4">
-        <v>600</v>
-      </c>
+      <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="L88" s="4">
-        <v>0</v>
-      </c>
-      <c r="M88" s="4"/>
+        <v>6000</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="N88" s="4">
         <v>2000</v>
       </c>
-      <c r="O88" s="4"/>
+      <c r="O88" s="4">
+        <v>1200</v>
+      </c>
       <c r="P88" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q88" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R88" s="4"/>
+      <c r="R88" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="S88" s="4">
+        <v>5</v>
+      </c>
+      <c r="T88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="5">
+        <v>20801</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5">
         <v>2</v>
       </c>
-      <c r="T88" s="4">
+      <c r="T89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="5">
+        <v>20802</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5">
+        <v>2</v>
+      </c>
+      <c r="T90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="5">
+        <v>20803</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
+        <v>8</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5">
+        <v>1800</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L91" s="5">
+        <v>9500</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N91" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5">
+        <v>3</v>
+      </c>
+      <c r="T91" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="5">
+        <v>20804</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="4">
-        <v>20711</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4">
-        <v>7</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L89" s="4">
+      <c r="H92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5">
+        <v>1800</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L92" s="5">
+        <v>9500</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N92" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5">
+        <v>3</v>
+      </c>
+      <c r="T92" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="5">
+        <v>20805</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5">
+        <v>720</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L93" s="5">
+        <v>9000</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N93" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5">
+        <v>1</v>
+      </c>
+      <c r="T93" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="5">
+        <v>20806</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5">
+        <v>600</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L94" s="5">
         <v>0</v>
       </c>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4">
-        <v>1</v>
-      </c>
-      <c r="T89" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="4">
-        <v>20712</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4">
-        <v>7</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4">
-        <v>1080</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L90" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N90" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4">
+      <c r="M94" s="5"/>
+      <c r="N94" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5">
+        <v>1</v>
+      </c>
+      <c r="T94" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="5">
+        <v>20807</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5">
+        <v>8</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5">
+        <v>480</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5">
+        <v>4500</v>
+      </c>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5">
         <v>2</v>
       </c>
-      <c r="T90" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="4">
-        <v>20713</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4">
-        <v>7</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4">
-        <v>480</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L91" s="4">
-        <v>0</v>
-      </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4">
-        <v>1</v>
-      </c>
-      <c r="T91" s="4">
+      <c r="T95" s="5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="4">
-        <v>20714</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4">
-        <v>7</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4">
-        <v>1080</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L92" s="4">
-        <v>8000</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N92" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4">
-        <v>2</v>
-      </c>
-      <c r="T92" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="4">
-        <v>20715</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4">
-        <v>7</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O93" s="4">
-        <v>50</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R93" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S93" s="4">
-        <v>5</v>
-      </c>
-      <c r="T93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="4">
-        <v>20716</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4">
-        <v>7</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O94" s="4">
-        <v>50</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R94" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S94" s="4">
-        <v>5</v>
-      </c>
-      <c r="T94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="4">
-        <v>20717</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4">
-        <v>7</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O95" s="4">
-        <v>50</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R95" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S95" s="4">
-        <v>5</v>
-      </c>
-      <c r="T95" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="5">
-        <v>20801</v>
+        <v>20808</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>72</v>
@@ -6537,20 +6621,20 @@
         <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L96" s="5">
         <v>0</v>
@@ -6568,15 +6652,15 @@
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T96" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="5">
-        <v>20802</v>
+        <v>20809</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>72</v>
@@ -6587,20 +6671,20 @@
         <v>8</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L97" s="5">
         <v>0</v>
@@ -6618,15 +6702,15 @@
       </c>
       <c r="R97" s="5"/>
       <c r="S97" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T97" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="5">
-        <v>20803</v>
+        <v>20810</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>72</v>
@@ -6637,27 +6721,25 @@
         <v>8</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L98" s="5">
-        <v>9500</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5">
         <v>4500</v>
       </c>
@@ -6670,15 +6752,15 @@
       </c>
       <c r="R98" s="5"/>
       <c r="S98" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T98" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="5">
-        <v>20804</v>
+        <v>20811</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>72</v>
@@ -6689,27 +6771,25 @@
         <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L99" s="5">
-        <v>9500</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5">
         <v>4500</v>
       </c>
@@ -6722,15 +6802,15 @@
       </c>
       <c r="R99" s="5"/>
       <c r="S99" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T99" s="5">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="5">
-        <v>20805</v>
+        <v>20812</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>72</v>
@@ -6741,26 +6821,26 @@
         <v>8</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L100" s="5">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="N100" s="5">
         <v>4500</v>
@@ -6774,15 +6854,15 @@
       </c>
       <c r="R100" s="5"/>
       <c r="S100" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T100" s="5">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="5">
-        <v>20806</v>
+        <v>20813</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>72</v>
@@ -6793,20 +6873,20 @@
         <v>8</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L101" s="5">
         <v>0</v>
@@ -6832,7 +6912,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="5">
-        <v>20807</v>
+        <v>20814</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>72</v>
@@ -6843,25 +6923,27 @@
         <v>8</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L102" s="5">
-        <v>0</v>
-      </c>
-      <c r="M102" s="5"/>
+        <v>8000</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="N102" s="5">
         <v>4500</v>
       </c>
@@ -6877,12 +6959,12 @@
         <v>2</v>
       </c>
       <c r="T102" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="5">
-        <v>20808</v>
+        <v>20815</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>72</v>
@@ -6893,20 +6975,18 @@
         <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I103" s="5"/>
-      <c r="J103" s="5">
-        <v>600</v>
-      </c>
+      <c r="J103" s="5"/>
       <c r="K103" s="5" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="L103" s="5">
         <v>0</v>
@@ -6915,24 +6995,28 @@
       <c r="N103" s="5">
         <v>4500</v>
       </c>
-      <c r="O103" s="5"/>
+      <c r="O103" s="5">
+        <v>2500</v>
+      </c>
       <c r="P103" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q103" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R103" s="5"/>
+      <c r="R103" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="S103" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T103" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="5">
-        <v>20809</v>
+        <v>20816</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>72</v>
@@ -6943,46 +7027,50 @@
         <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I104" s="5"/>
-      <c r="J104" s="5">
-        <v>600</v>
-      </c>
+      <c r="J104" s="5"/>
       <c r="K104" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L104" s="5">
-        <v>0</v>
-      </c>
-      <c r="M104" s="5"/>
+        <v>6000</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="N104" s="5">
         <v>4500</v>
       </c>
-      <c r="O104" s="5"/>
+      <c r="O104" s="5">
+        <v>2500</v>
+      </c>
       <c r="P104" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q104" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R104" s="5"/>
+      <c r="R104" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="S104" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T104" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="5">
-        <v>20810</v>
+        <v>20817</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>72</v>
@@ -6993,485 +7081,77 @@
         <v>8</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I105" s="5"/>
-      <c r="J105" s="5">
-        <v>600</v>
-      </c>
+      <c r="J105" s="5"/>
       <c r="K105" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="L105" s="5">
-        <v>0</v>
-      </c>
-      <c r="M105" s="5"/>
+        <v>6000</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="N105" s="5">
         <v>4500</v>
       </c>
-      <c r="O105" s="5"/>
+      <c r="O105" s="5">
+        <v>2500</v>
+      </c>
       <c r="P105" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q105" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R105" s="5"/>
+      <c r="R105" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="S105" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T105" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="5">
-        <v>20811</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5">
-        <v>8</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5">
-        <v>1200</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L106" s="5">
-        <v>0</v>
-      </c>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q106" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5">
-        <v>1</v>
-      </c>
-      <c r="T106" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="5">
-        <v>20812</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5">
-        <v>8</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5">
-        <v>1080</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L107" s="5">
-        <v>8000</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N107" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q107" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5">
-        <v>2</v>
-      </c>
-      <c r="T107" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="5">
-        <v>20813</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5">
-        <v>8</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5">
-        <v>480</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L108" s="5">
-        <v>0</v>
-      </c>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q108" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5">
-        <v>1</v>
-      </c>
-      <c r="T108" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="5">
-        <v>20814</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5">
-        <v>8</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5">
-        <v>1080</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L109" s="5">
-        <v>8000</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N109" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q109" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5">
-        <v>2</v>
-      </c>
-      <c r="T109" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="5">
-        <v>20815</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5">
-        <v>8</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O110" s="5">
-        <v>50</v>
-      </c>
-      <c r="P110" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q110" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R110" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S110" s="5">
-        <v>5</v>
-      </c>
-      <c r="T110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="5">
-        <v>20816</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5">
-        <v>8</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O111" s="5">
-        <v>50</v>
-      </c>
-      <c r="P111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q111" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R111" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S111" s="5">
-        <v>5</v>
-      </c>
-      <c r="T111" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="5">
-        <v>20817</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5">
-        <v>8</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O112" s="5">
-        <v>50</v>
-      </c>
-      <c r="P112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q112" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R112" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S112" s="5">
-        <v>5</v>
-      </c>
-      <c r="T112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="Z113" s="2">
-        <v>9901</v>
-      </c>
-      <c r="AA113" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="Z114" s="2">
-        <v>9902</v>
-      </c>
-      <c r="AA114" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="Z115" s="2">
-        <v>9903</v>
-      </c>
-      <c r="AA115" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="26:27">
-      <c r="Z116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="26:27">
+      <c r="Z106" s="2">
         <v>9904</v>
       </c>
-      <c r="AA116" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="26:27">
-      <c r="Z117" s="2">
+      <c r="AA106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="26:27">
+      <c r="Z107" s="2">
         <v>9905</v>
       </c>
-      <c r="AA117" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118" spans="26:27">
-      <c r="Z118" s="2">
+      <c r="AA107" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="26:27">
+      <c r="Z108" s="2">
         <v>9906</v>
       </c>
-      <c r="AA118" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="26:27">
-      <c r="Z119" s="2">
+      <c r="AA108" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="26:27">
+      <c r="Z109" s="2">
         <v>9907</v>
       </c>
-      <c r="AA119" s="2" t="s">
-        <v>185</v>
+      <c r="AA109" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -280,7 +280,7 @@
     <t>Item|1006|5_8</t>
   </si>
   <si>
-    <t>剿匪</t>
+    <t>剿匪徒</t>
   </si>
   <si>
     <t>最近隔壁村闹山贼，村长请我们去剿匪。</t>
@@ -1597,9 +1597,9 @@
   <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L106" sqref="L106"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="181">
   <si>
     <t>任务ID</t>
   </si>
@@ -181,18 +181,6 @@
     <t>Item|1001|20</t>
   </si>
   <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>功夫经验</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>单人功力</t>
-  </si>
-  <si>
     <t>盖宿舍</t>
   </si>
   <si>
@@ -572,18 +560,6 @@
   </si>
   <si>
     <t>Item|1008|12_20</t>
-  </si>
-  <si>
-    <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
-  </si>
-  <si>
-    <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
-  </si>
-  <si>
-    <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
-  </si>
-  <si>
-    <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
   </si>
 </sst>
 </file>
@@ -592,11 +568,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,8 +589,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,16 +603,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,9 +640,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,31 +672,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -704,10 +686,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,31 +709,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,9 +725,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +795,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,61 +891,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,61 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,21 +984,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1045,11 +998,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,23 +1046,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,140 +1089,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,9 +1237,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1594,12 +1559,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1617,9 +1582,7 @@
     <col min="17" max="17" width="6.625" customWidth="1"/>
     <col min="18" max="18" width="8.625" style="2" customWidth="1"/>
     <col min="19" max="20" width="6.625" style="2" customWidth="1"/>
-    <col min="21" max="25" width="8.83333333333333" style="2"/>
-    <col min="26" max="26" width="11.5" style="2"/>
-    <col min="27" max="16384" width="8.83333333333333" style="2"/>
+    <col min="21" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
@@ -1920,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>10020</v>
       </c>
@@ -1969,20 +1932,8 @@
       <c r="T6" s="3">
         <v>1</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>10030</v>
       </c>
@@ -1995,20 +1946,20 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -2025,23 +1976,8 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>50</v>
-      </c>
-      <c r="X7" s="2">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>10040</v>
       </c>
@@ -2054,20 +1990,20 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I8" s="3">
         <v>5</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -2084,23 +2020,8 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="V8" s="2">
-        <v>2</v>
-      </c>
-      <c r="W8" s="2">
-        <v>80</v>
-      </c>
-      <c r="X8" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>10050</v>
       </c>
@@ -2111,20 +2032,20 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -2141,23 +2062,8 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="V9" s="2">
-        <v>3</v>
-      </c>
-      <c r="W9" s="2">
-        <v>150</v>
-      </c>
-      <c r="X9" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>10051</v>
       </c>
@@ -2173,7 +2079,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -2188,32 +2094,17 @@
         <v>49</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="2">
-        <v>4</v>
-      </c>
-      <c r="W10" s="2">
-        <v>250</v>
-      </c>
-      <c r="X10" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>500</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>13959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>20101</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2221,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>46</v>
@@ -2257,28 +2148,13 @@
       <c r="T11" s="4">
         <v>1</v>
       </c>
-      <c r="V11" s="2">
-        <v>5</v>
-      </c>
-      <c r="W11" s="2">
-        <v>450</v>
-      </c>
-      <c r="X11" s="2">
-        <v>350</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>166707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>20102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2286,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>52</v>
@@ -2322,28 +2198,13 @@
       <c r="T12" s="4">
         <v>1</v>
       </c>
-      <c r="V12" s="2">
-        <v>6</v>
-      </c>
-      <c r="W12" s="2">
-        <v>800</v>
-      </c>
-      <c r="X12" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1391184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="5">
         <v>20201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2351,10 +2212,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>46</v>
@@ -2364,7 +2225,7 @@
         <v>180</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -2387,28 +2248,13 @@
       <c r="T13" s="5">
         <v>1</v>
       </c>
-      <c r="V13" s="2">
-        <v>7</v>
-      </c>
-      <c r="W13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1200</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>5000</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>75745613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="5">
         <v>20202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2416,10 +2262,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>52</v>
@@ -2429,7 +2275,7 @@
         <v>180</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -2452,28 +2298,13 @@
       <c r="T14" s="5">
         <v>1</v>
       </c>
-      <c r="V14" s="2">
-        <v>8</v>
-      </c>
-      <c r="W14" s="2">
-        <v>4500</v>
-      </c>
-      <c r="X14" s="2">
-        <v>2500</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>8000</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1996093750</v>
-      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5">
         <v>20203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2481,20 +2312,20 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5">
         <v>180</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -2523,7 +2354,7 @@
         <v>20204</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2531,20 +2362,20 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5">
         <v>180</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -2573,7 +2404,7 @@
         <v>20205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2581,18 +2412,18 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -2611,7 +2442,7 @@
         <v>49</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S17" s="5">
         <v>5</v>
@@ -2625,7 +2456,7 @@
         <v>20301</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2633,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>46</v>
@@ -2646,7 +2477,7 @@
         <v>300</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -2675,7 +2506,7 @@
         <v>20302</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2683,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>52</v>
@@ -2696,7 +2527,7 @@
         <v>300</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
@@ -2725,7 +2556,7 @@
         <v>20303</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2733,26 +2564,26 @@
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
         <v>300</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L20" s="4">
         <v>6000</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N20" s="4">
         <v>150</v>
@@ -2777,7 +2608,7 @@
         <v>20304</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2785,26 +2616,26 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
         <v>300</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L21" s="4">
         <v>6000</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N21" s="4">
         <v>150</v>
@@ -2829,7 +2660,7 @@
         <v>20305</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2837,20 +2668,20 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
         <v>300</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
@@ -2879,7 +2710,7 @@
         <v>20306</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2887,20 +2718,20 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
         <v>300</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
@@ -2929,7 +2760,7 @@
         <v>20307</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2937,20 +2768,20 @@
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4">
         <v>300</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L24" s="4">
         <v>0</v>
@@ -2979,7 +2810,7 @@
         <v>20308</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2987,18 +2818,18 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
@@ -3017,7 +2848,7 @@
         <v>49</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S25" s="4">
         <v>5</v>
@@ -3031,7 +2862,7 @@
         <v>20309</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3039,18 +2870,18 @@
         <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
@@ -3069,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S26" s="4">
         <v>5</v>
@@ -3083,7 +2914,7 @@
         <v>20401</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3091,10 +2922,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>46</v>
@@ -3104,7 +2935,7 @@
         <v>600</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -3133,7 +2964,7 @@
         <v>20402</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3141,10 +2972,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>52</v>
@@ -3154,7 +2985,7 @@
         <v>600</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
@@ -3183,7 +3014,7 @@
         <v>20403</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -3191,26 +3022,26 @@
         <v>4</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
         <v>600</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L29" s="5">
         <v>7000</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N29" s="5">
         <v>250</v>
@@ -3235,7 +3066,7 @@
         <v>20404</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3243,26 +3074,26 @@
         <v>4</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
         <v>600</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L30" s="5">
         <v>7000</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N30" s="5">
         <v>250</v>
@@ -3287,7 +3118,7 @@
         <v>20405</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3295,26 +3126,26 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
         <v>480</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L31" s="5">
         <v>6000</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N31" s="5">
         <v>250</v>
@@ -3339,7 +3170,7 @@
         <v>20406</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3347,20 +3178,20 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
         <v>300</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -3389,7 +3220,7 @@
         <v>20407</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3397,20 +3228,20 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
         <v>300</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L33" s="5">
         <v>0</v>
@@ -3439,7 +3270,7 @@
         <v>20408</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3447,20 +3278,20 @@
         <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5">
         <v>300</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
@@ -3489,7 +3320,7 @@
         <v>20409</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3497,20 +3328,20 @@
         <v>4</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
         <v>300</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
@@ -3539,7 +3370,7 @@
         <v>20410</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3547,20 +3378,20 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5">
         <v>480</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -3589,7 +3420,7 @@
         <v>20411</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3597,18 +3428,18 @@
         <v>4</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
@@ -3627,7 +3458,7 @@
         <v>49</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S37" s="5">
         <v>5</v>
@@ -3641,7 +3472,7 @@
         <v>20412</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3649,24 +3480,24 @@
         <v>4</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L38" s="5">
         <v>3000</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N38" s="5">
         <v>250</v>
@@ -3681,7 +3512,7 @@
         <v>49</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S38" s="5">
         <v>5</v>
@@ -3695,7 +3526,7 @@
         <v>20413</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3703,24 +3534,24 @@
         <v>4</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L39" s="5">
         <v>3000</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N39" s="5">
         <v>250</v>
@@ -3735,7 +3566,7 @@
         <v>49</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S39" s="5">
         <v>5</v>
@@ -3749,7 +3580,7 @@
         <v>20501</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3757,10 +3588,10 @@
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>46</v>
@@ -3770,7 +3601,7 @@
         <v>900</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L40" s="4">
         <v>0</v>
@@ -3799,7 +3630,7 @@
         <v>20502</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3807,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>52</v>
@@ -3820,7 +3651,7 @@
         <v>900</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
@@ -3849,7 +3680,7 @@
         <v>20503</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3857,26 +3688,26 @@
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
         <v>900</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L42" s="4">
         <v>8000</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N42" s="4">
         <v>450</v>
@@ -3901,7 +3732,7 @@
         <v>20504</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3909,26 +3740,26 @@
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
         <v>900</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L43" s="4">
         <v>8000</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N43" s="4">
         <v>450</v>
@@ -3953,7 +3784,7 @@
         <v>20505</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3961,26 +3792,26 @@
         <v>5</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4">
         <v>720</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L44" s="4">
         <v>8000</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N44" s="4">
         <v>450</v>
@@ -4005,7 +3836,7 @@
         <v>20506</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -4013,20 +3844,20 @@
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4">
         <v>600</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -4055,7 +3886,7 @@
         <v>20507</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4063,20 +3894,20 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4">
         <v>480</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -4105,7 +3936,7 @@
         <v>20508</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -4113,20 +3944,20 @@
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4">
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
@@ -4155,7 +3986,7 @@
         <v>20509</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4163,20 +3994,20 @@
         <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4">
         <v>600</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L48" s="4">
         <v>0</v>
@@ -4205,7 +4036,7 @@
         <v>20510</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4213,20 +4044,20 @@
         <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4">
         <v>480</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L49" s="4">
         <v>0</v>
@@ -4255,7 +4086,7 @@
         <v>20511</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4263,20 +4094,20 @@
         <v>5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
         <v>480</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L50" s="4">
         <v>0</v>
@@ -4305,7 +4136,7 @@
         <v>20512</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -4313,26 +4144,26 @@
         <v>5</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
         <v>1080</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L51" s="4">
         <v>8000</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N51" s="4">
         <v>450</v>
@@ -4357,7 +4188,7 @@
         <v>20513</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4365,18 +4196,18 @@
         <v>5</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -4395,7 +4226,7 @@
         <v>49</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S52" s="4">
         <v>5</v>
@@ -4409,7 +4240,7 @@
         <v>20514</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -4417,24 +4248,24 @@
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L53" s="4">
         <v>4000</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N53" s="4">
         <v>450</v>
@@ -4449,7 +4280,7 @@
         <v>49</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S53" s="4">
         <v>5</v>
@@ -4463,7 +4294,7 @@
         <v>20515</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4471,24 +4302,24 @@
         <v>5</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L54" s="4">
         <v>4000</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N54" s="4">
         <v>450</v>
@@ -4503,7 +4334,7 @@
         <v>49</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S54" s="4">
         <v>5</v>
@@ -4517,7 +4348,7 @@
         <v>20601</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4525,10 +4356,10 @@
         <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>46</v>
@@ -4538,7 +4369,7 @@
         <v>1200</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L55" s="5">
         <v>0</v>
@@ -4567,7 +4398,7 @@
         <v>20602</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4575,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>52</v>
@@ -4588,7 +4419,7 @@
         <v>1200</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
@@ -4617,7 +4448,7 @@
         <v>20603</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4625,26 +4456,26 @@
         <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
         <v>1200</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L57" s="5">
         <v>9000</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N57" s="5">
         <v>800</v>
@@ -4669,7 +4500,7 @@
         <v>20604</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4677,26 +4508,26 @@
         <v>6</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
         <v>1200</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L58" s="5">
         <v>9000</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N58" s="5">
         <v>800</v>
@@ -4721,7 +4552,7 @@
         <v>20605</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4729,26 +4560,26 @@
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5">
         <v>720</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L59" s="5">
         <v>8000</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N59" s="5">
         <v>800</v>
@@ -4773,7 +4604,7 @@
         <v>20606</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4781,20 +4612,20 @@
         <v>6</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5">
         <v>600</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L60" s="5">
         <v>0</v>
@@ -4823,7 +4654,7 @@
         <v>20607</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4831,20 +4662,20 @@
         <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5">
         <v>480</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L61" s="5">
         <v>0</v>
@@ -4873,7 +4704,7 @@
         <v>20608</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4881,20 +4712,20 @@
         <v>6</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5">
         <v>600</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L62" s="5">
         <v>0</v>
@@ -4923,7 +4754,7 @@
         <v>20609</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4931,20 +4762,20 @@
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5">
         <v>600</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -4973,7 +4804,7 @@
         <v>20610</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4981,20 +4812,20 @@
         <v>6</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
         <v>600</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
@@ -5023,7 +4854,7 @@
         <v>20611</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5031,20 +4862,20 @@
         <v>6</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
         <v>1200</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
@@ -5073,7 +4904,7 @@
         <v>20612</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5081,26 +4912,26 @@
         <v>6</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
         <v>1080</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L66" s="5">
         <v>8000</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N66" s="5">
         <v>800</v>
@@ -5125,7 +4956,7 @@
         <v>20613</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -5133,20 +4964,20 @@
         <v>6</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
         <v>480</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
@@ -5175,7 +5006,7 @@
         <v>20614</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -5183,26 +5014,26 @@
         <v>6</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
         <v>1080</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L68" s="5">
         <v>8000</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N68" s="5">
         <v>800</v>
@@ -5227,7 +5058,7 @@
         <v>20615</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5235,18 +5066,18 @@
         <v>6</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L69" s="5">
         <v>0</v>
@@ -5265,7 +5096,7 @@
         <v>49</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S69" s="5">
         <v>5</v>
@@ -5279,7 +5110,7 @@
         <v>20616</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5287,24 +5118,24 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L70" s="5">
         <v>5000</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N70" s="5">
         <v>800</v>
@@ -5319,7 +5150,7 @@
         <v>49</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S70" s="5">
         <v>5</v>
@@ -5333,7 +5164,7 @@
         <v>20617</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5341,24 +5172,24 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L71" s="5">
         <v>5000</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N71" s="5">
         <v>800</v>
@@ -5373,7 +5204,7 @@
         <v>49</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S71" s="5">
         <v>5</v>
@@ -5387,7 +5218,7 @@
         <v>20701</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5395,10 +5226,10 @@
         <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>46</v>
@@ -5408,7 +5239,7 @@
         <v>1200</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L72" s="4">
         <v>0</v>
@@ -5437,7 +5268,7 @@
         <v>20702</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5445,10 +5276,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>52</v>
@@ -5458,7 +5289,7 @@
         <v>1200</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L73" s="4">
         <v>0</v>
@@ -5487,7 +5318,7 @@
         <v>20703</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5495,26 +5326,26 @@
         <v>7</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4">
         <v>1500</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L74" s="4">
         <v>9500</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N74" s="4">
         <v>2000</v>
@@ -5539,7 +5370,7 @@
         <v>20704</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5547,26 +5378,26 @@
         <v>7</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4">
         <v>1500</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L75" s="4">
         <v>9500</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N75" s="4">
         <v>2000</v>
@@ -5591,7 +5422,7 @@
         <v>20705</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5599,26 +5430,26 @@
         <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4">
         <v>720</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L76" s="4">
         <v>9000</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N76" s="4">
         <v>2000</v>
@@ -5643,7 +5474,7 @@
         <v>20706</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5651,20 +5482,20 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4">
         <v>600</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L77" s="4">
         <v>0</v>
@@ -5693,7 +5524,7 @@
         <v>20707</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5701,20 +5532,20 @@
         <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4">
         <v>480</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L78" s="4">
         <v>0</v>
@@ -5743,7 +5574,7 @@
         <v>20708</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5751,20 +5582,20 @@
         <v>7</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4">
         <v>600</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
@@ -5793,7 +5624,7 @@
         <v>20709</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5801,20 +5632,20 @@
         <v>7</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4">
         <v>600</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -5843,7 +5674,7 @@
         <v>20710</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -5851,20 +5682,20 @@
         <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4">
         <v>600</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L81" s="4">
         <v>0</v>
@@ -5893,7 +5724,7 @@
         <v>20711</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5901,20 +5732,20 @@
         <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4">
         <v>1200</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L82" s="4">
         <v>0</v>
@@ -5943,7 +5774,7 @@
         <v>20712</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5951,26 +5782,26 @@
         <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4">
         <v>1080</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L83" s="4">
         <v>8000</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N83" s="4">
         <v>2000</v>
@@ -5995,7 +5826,7 @@
         <v>20713</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6003,20 +5834,20 @@
         <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4">
         <v>480</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L84" s="4">
         <v>0</v>
@@ -6045,7 +5876,7 @@
         <v>20714</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6053,26 +5884,26 @@
         <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4">
         <v>1080</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L85" s="4">
         <v>8000</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N85" s="4">
         <v>2000</v>
@@ -6097,7 +5928,7 @@
         <v>20715</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6105,18 +5936,18 @@
         <v>7</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L86" s="4">
         <v>0</v>
@@ -6135,7 +5966,7 @@
         <v>49</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S86" s="4">
         <v>5</v>
@@ -6149,7 +5980,7 @@
         <v>20716</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6157,24 +5988,24 @@
         <v>7</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L87" s="4">
         <v>6000</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N87" s="4">
         <v>2000</v>
@@ -6189,7 +6020,7 @@
         <v>49</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S87" s="4">
         <v>5</v>
@@ -6203,7 +6034,7 @@
         <v>20717</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6211,24 +6042,24 @@
         <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L88" s="4">
         <v>6000</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N88" s="4">
         <v>2000</v>
@@ -6243,7 +6074,7 @@
         <v>49</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S88" s="4">
         <v>5</v>
@@ -6257,7 +6088,7 @@
         <v>20801</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -6265,10 +6096,10 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>46</v>
@@ -6278,7 +6109,7 @@
         <v>1200</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L89" s="5">
         <v>0</v>
@@ -6307,7 +6138,7 @@
         <v>20802</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -6315,10 +6146,10 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>52</v>
@@ -6328,7 +6159,7 @@
         <v>1200</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L90" s="5">
         <v>0</v>
@@ -6357,7 +6188,7 @@
         <v>20803</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -6365,26 +6196,26 @@
         <v>8</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5">
         <v>1800</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L91" s="5">
         <v>9500</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N91" s="5">
         <v>4500</v>
@@ -6409,7 +6240,7 @@
         <v>20804</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6417,26 +6248,26 @@
         <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5">
         <v>1800</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L92" s="5">
         <v>9500</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N92" s="5">
         <v>4500</v>
@@ -6461,7 +6292,7 @@
         <v>20805</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -6469,26 +6300,26 @@
         <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5">
         <v>720</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L93" s="5">
         <v>9000</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N93" s="5">
         <v>4500</v>
@@ -6513,7 +6344,7 @@
         <v>20806</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -6521,20 +6352,20 @@
         <v>8</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5">
         <v>600</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L94" s="5">
         <v>0</v>
@@ -6563,7 +6394,7 @@
         <v>20807</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -6571,20 +6402,20 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5">
         <v>480</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L95" s="5">
         <v>0</v>
@@ -6613,7 +6444,7 @@
         <v>20808</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -6621,20 +6452,20 @@
         <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
         <v>600</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L96" s="5">
         <v>0</v>
@@ -6663,7 +6494,7 @@
         <v>20809</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -6671,20 +6502,20 @@
         <v>8</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5">
         <v>600</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L97" s="5">
         <v>0</v>
@@ -6713,7 +6544,7 @@
         <v>20810</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -6721,20 +6552,20 @@
         <v>8</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
         <v>600</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L98" s="5">
         <v>0</v>
@@ -6763,7 +6594,7 @@
         <v>20811</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -6771,20 +6602,20 @@
         <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
         <v>1200</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L99" s="5">
         <v>0</v>
@@ -6813,7 +6644,7 @@
         <v>20812</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -6821,26 +6652,26 @@
         <v>8</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5">
         <v>1080</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L100" s="5">
         <v>8000</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N100" s="5">
         <v>4500</v>
@@ -6865,7 +6696,7 @@
         <v>20813</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -6873,20 +6704,20 @@
         <v>8</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5">
         <v>480</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L101" s="5">
         <v>0</v>
@@ -6915,7 +6746,7 @@
         <v>20814</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -6923,26 +6754,26 @@
         <v>8</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
         <v>1080</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L102" s="5">
         <v>8000</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N102" s="5">
         <v>4500</v>
@@ -6967,7 +6798,7 @@
         <v>20815</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -6975,18 +6806,18 @@
         <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L103" s="5">
         <v>0</v>
@@ -7005,7 +6836,7 @@
         <v>49</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S103" s="5">
         <v>5</v>
@@ -7019,7 +6850,7 @@
         <v>20816</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -7027,24 +6858,24 @@
         <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L104" s="5">
         <v>6000</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N104" s="5">
         <v>4500</v>
@@ -7059,7 +6890,7 @@
         <v>49</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S104" s="5">
         <v>5</v>
@@ -7073,7 +6904,7 @@
         <v>20817</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -7081,24 +6912,24 @@
         <v>8</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L105" s="5">
         <v>6000</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N105" s="5">
         <v>4500</v>
@@ -7113,45 +6944,13 @@
         <v>49</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S105" s="5">
         <v>5</v>
       </c>
       <c r="T105" s="5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="26:27">
-      <c r="Z106" s="2">
-        <v>9904</v>
-      </c>
-      <c r="AA106" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="26:27">
-      <c r="Z107" s="2">
-        <v>9905</v>
-      </c>
-      <c r="AA107" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="26:27">
-      <c r="Z108" s="2">
-        <v>9906</v>
-      </c>
-      <c r="AA108" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="26:27">
-      <c r="Z109" s="2">
-        <v>9907</v>
-      </c>
-      <c r="AA109" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$33</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>任务ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>任务类型</t>
   </si>
   <si>
-    <t>内容参数</t>
-  </si>
-  <si>
     <t>数量参数</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>ContentP</t>
-  </si>
-  <si>
     <t>CountP</t>
   </si>
   <si>
@@ -70,45 +64,78 @@
     <t>Coin|100</t>
   </si>
   <si>
+    <t>Main_BuildLivableRoom</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
     <t>拥有3名弟子</t>
   </si>
   <si>
     <t>Item|2001|1</t>
   </si>
   <si>
+    <t>Main_OwnStudents</t>
+  </si>
+  <si>
     <t>建造1处练功场</t>
   </si>
   <si>
     <t>Food|25</t>
   </si>
   <si>
+    <t>Main_BuildPracticeField</t>
+  </si>
+  <si>
     <t>拥有1间2级屋舍</t>
   </si>
   <si>
+    <t>1|2</t>
+  </si>
+  <si>
     <t>建造3间屋舍</t>
   </si>
   <si>
+    <t>3|1</t>
+  </si>
+  <si>
     <t>讲武堂升至2级</t>
   </si>
   <si>
     <t>Item|2002|1</t>
   </si>
   <si>
-    <t>完成1次挑战</t>
+    <t>Main_BuildLobby</t>
+  </si>
+  <si>
+    <t>完成挑战1-1</t>
   </si>
   <si>
     <t>Coin|250</t>
   </si>
   <si>
+    <t>Main_Chanllenge</t>
+  </si>
+  <si>
     <t>建造藏经阁</t>
   </si>
   <si>
+    <t>Main_BuildLibrary</t>
+  </si>
+  <si>
     <t>建造4间屋舍</t>
   </si>
   <si>
+    <t>4|1</t>
+  </si>
+  <si>
     <t>拥有1间4级屋舍</t>
   </si>
   <si>
+    <t>1|4</t>
+  </si>
+  <si>
     <t>拥有12名弟子</t>
   </si>
   <si>
@@ -121,12 +148,21 @@
     <t>建造锻造屋</t>
   </si>
   <si>
+    <t>Main_BuildForgeHouse</t>
+  </si>
+  <si>
     <t>建造5间屋舍</t>
   </si>
   <si>
+    <t>5|1</t>
+  </si>
+  <si>
     <t>拥有1间5级屋舍</t>
   </si>
   <si>
+    <t>1|5</t>
+  </si>
+  <si>
     <t>拥有20名弟子</t>
   </si>
   <si>
@@ -139,12 +175,21 @@
     <t>建造百草屋</t>
   </si>
   <si>
+    <t>Main_BuildBaicaohu</t>
+  </si>
+  <si>
     <t>建造2处练功场</t>
   </si>
   <si>
+    <t>2|1</t>
+  </si>
+  <si>
     <t>建造6间屋舍</t>
   </si>
   <si>
+    <t>6|1</t>
+  </si>
+  <si>
     <t>拥有30名弟子</t>
   </si>
   <si>
@@ -157,9 +202,15 @@
     <t>建造7间屋舍</t>
   </si>
   <si>
+    <t>7|1</t>
+  </si>
+  <si>
     <t>拥有1间6级屋舍</t>
   </si>
   <si>
+    <t>1|6</t>
+  </si>
+  <si>
     <t>拥有40名弟子</t>
   </si>
   <si>
@@ -172,7 +223,13 @@
     <t>建造8间屋舍</t>
   </si>
   <si>
+    <t>8|1</t>
+  </si>
+  <si>
     <t>拥有3间6级屋舍</t>
+  </si>
+  <si>
+    <t>3|6</t>
   </si>
   <si>
     <t>拥有50名弟子</t>
@@ -186,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,7 +265,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +331,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -246,43 +386,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -290,49 +393,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,13 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,19 +423,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +555,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,109 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,58 +635,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,11 +671,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,136 +747,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,26 +1208,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83333333333333" style="2"/>
+    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,86 +1242,76 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1275,387 +1321,469 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="2">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="2">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="2">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="2">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
         <v>50</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$33</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>任务ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>任务类型</t>
   </si>
   <si>
-    <t>内容参数</t>
-  </si>
-  <si>
     <t>数量参数</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>ContentP</t>
-  </si>
-  <si>
     <t>CountP</t>
   </si>
   <si>
@@ -70,21 +64,33 @@
     <t>Coin|100</t>
   </si>
   <si>
+    <t>Main_BuildLivableRoom|1</t>
+  </si>
+  <si>
     <t>拥有3名弟子</t>
   </si>
   <si>
     <t>Item|2001|1</t>
   </si>
   <si>
+    <t>Main_OwnStudents</t>
+  </si>
+  <si>
     <t>建造1处练功场</t>
   </si>
   <si>
     <t>Food|25</t>
   </si>
   <si>
+    <t>Main_BuildPracticeField</t>
+  </si>
+  <si>
     <t>拥有1间2级屋舍</t>
   </si>
   <si>
+    <t>Main_BuildLivableRoom|2</t>
+  </si>
+  <si>
     <t>建造3间屋舍</t>
   </si>
   <si>
@@ -94,21 +100,33 @@
     <t>Item|2002|1</t>
   </si>
   <si>
-    <t>完成1次挑战</t>
+    <t>Main_BuildLobby</t>
+  </si>
+  <si>
+    <t>完成挑战1-1</t>
   </si>
   <si>
     <t>Coin|250</t>
   </si>
   <si>
+    <t>Main_Chanllenge|10</t>
+  </si>
+  <si>
     <t>建造藏经阁</t>
   </si>
   <si>
+    <t>Main_BuildLibrary|1</t>
+  </si>
+  <si>
     <t>建造4间屋舍</t>
   </si>
   <si>
     <t>拥有1间4级屋舍</t>
   </si>
   <si>
+    <t>Main_BuildLivableRoom|4</t>
+  </si>
+  <si>
     <t>拥有12名弟子</t>
   </si>
   <si>
@@ -121,12 +139,18 @@
     <t>建造锻造屋</t>
   </si>
   <si>
+    <t>Main_BuildForgeHouse</t>
+  </si>
+  <si>
     <t>建造5间屋舍</t>
   </si>
   <si>
     <t>拥有1间5级屋舍</t>
   </si>
   <si>
+    <t>Main_BuildLivableRoom|5</t>
+  </si>
+  <si>
     <t>拥有20名弟子</t>
   </si>
   <si>
@@ -139,9 +163,15 @@
     <t>建造百草屋</t>
   </si>
   <si>
+    <t>Main_BuildBaicaohu</t>
+  </si>
+  <si>
     <t>建造2处练功场</t>
   </si>
   <si>
+    <t>Main_BuildPracticeField|1</t>
+  </si>
+  <si>
     <t>建造6间屋舍</t>
   </si>
   <si>
@@ -158,6 +188,9 @@
   </si>
   <si>
     <t>拥有1间6级屋舍</t>
+  </si>
+  <si>
+    <t>Main_BuildLivableRoom|6</t>
   </si>
   <si>
     <t>拥有40名弟子</t>
@@ -186,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,9 +241,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +292,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,37 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -276,23 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,51 +383,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,25 +399,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,157 +561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,15 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,26 +625,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +657,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -663,163 +705,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,55 +867,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1149,28 +1182,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83333333333333" style="2"/>
+    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83035714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,101 +1218,93 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1290,377 +1314,457 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2">
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="2">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2">
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2">
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="2">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2">
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2">
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="2">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="2">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="2">
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2">
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="2">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>任务ID</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Food|25</t>
   </si>
   <si>
-    <t>Main_BuildPracticeField</t>
+    <t>Main_BuildPracticeField|1</t>
   </si>
   <si>
     <t>拥有1间2级屋舍</t>
@@ -109,7 +109,7 @@
     <t>Coin|250</t>
   </si>
   <si>
-    <t>Main_Chanllenge|10</t>
+    <t>Main_Chanllenge|101</t>
   </si>
   <si>
     <t>建造藏经阁</t>
@@ -130,7 +130,7 @@
     <t>拥有12名弟子</t>
   </si>
   <si>
-    <t>Kongfu|3002</t>
+    <t>Kongfu|3002|1</t>
   </si>
   <si>
     <t>讲武堂升至3级</t>
@@ -139,7 +139,7 @@
     <t>建造锻造屋</t>
   </si>
   <si>
-    <t>Main_BuildForgeHouse</t>
+    <t>Main_BuildForgeHouse|1</t>
   </si>
   <si>
     <t>建造5间屋舍</t>
@@ -154,7 +154,7 @@
     <t>拥有20名弟子</t>
   </si>
   <si>
-    <t>Arms|306</t>
+    <t>Arms|306|1</t>
   </si>
   <si>
     <t>讲武堂升至4级</t>
@@ -163,22 +163,19 @@
     <t>建造百草屋</t>
   </si>
   <si>
-    <t>Main_BuildBaicaohu</t>
+    <t>Main_BuildBaicaohu|1</t>
   </si>
   <si>
     <t>建造2处练功场</t>
   </si>
   <si>
-    <t>Main_BuildPracticeField|1</t>
-  </si>
-  <si>
     <t>建造6间屋舍</t>
   </si>
   <si>
     <t>拥有30名弟子</t>
   </si>
   <si>
-    <t>Armor|601</t>
+    <t>Armor|601|1</t>
   </si>
   <si>
     <t>讲武堂升至5级</t>
@@ -211,7 +208,7 @@
     <t>拥有50名弟子</t>
   </si>
   <si>
-    <t>Arms|303</t>
+    <t>Arms|303|1</t>
   </si>
 </sst>
 </file>
@@ -220,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -241,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,7 +252,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,24 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,33 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,50 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,25 +396,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,157 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,17 +605,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,15 +639,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,36 +659,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,154 +687,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -1459,7 +1456,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>38</v>
@@ -1476,7 +1473,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>39</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>41</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>42</v>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>44</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -1578,7 +1575,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
@@ -1587,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1595,10 +1592,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1612,13 +1609,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
@@ -1629,10 +1626,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -1646,10 +1643,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -1663,16 +1660,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1680,13 +1677,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -1697,10 +1694,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -1714,10 +1711,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
@@ -1731,16 +1728,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -1748,13 +1745,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -193,7 +193,7 @@
     <t>拥有40名弟子</t>
   </si>
   <si>
-    <t>Arms|305</t>
+    <t>Arms|305|1</t>
   </si>
   <si>
     <t>讲武堂升至6级</t>
@@ -1186,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>任务ID</t>
   </si>
@@ -79,7 +79,7 @@
     <t>建造1处练功场</t>
   </si>
   <si>
-    <t>Food|25</t>
+    <t>Food|20</t>
   </si>
   <si>
     <t>Main_BuildPracticeField|1</t>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +251,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,60 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -329,53 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,53 +607,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,154 +660,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -864,55 +864,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1179,27 +1179,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83035714285714" style="2"/>
+    <col min="6" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -79,7 +79,7 @@
     <t>建造1处练功场</t>
   </si>
   <si>
-    <t>Food|20</t>
+    <t>Food|10</t>
   </si>
   <si>
     <t>Main_BuildPracticeField|1</t>
@@ -106,7 +106,7 @@
     <t>完成挑战1-1</t>
   </si>
   <si>
-    <t>Coin|250</t>
+    <t>Coin|200</t>
   </si>
   <si>
     <t>Main_Chanllenge|101</t>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,16 +238,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +328,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,120 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -631,17 +620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +663,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -696,9 +694,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,136 +720,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -237,8 +237,123 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,98 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -351,35 +374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,19 +396,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,163 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,26 +605,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,17 +644,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,36 +702,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,136 +720,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1326,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -154,7 +154,7 @@
     <t>拥有20名弟子</t>
   </si>
   <si>
-    <t>Arms|306|1</t>
+    <t>Arms202|1</t>
   </si>
   <si>
     <t>讲武堂升至4级</t>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +237,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -244,142 +380,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,91 +396,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,91 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,11 +605,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,34 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,136 +720,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -175,7 +175,7 @@
     <t>拥有30名弟子</t>
   </si>
   <si>
-    <t>Armor|601|1</t>
+    <t>Armor|602|1</t>
   </si>
   <si>
     <t>讲武堂升至5级</t>
@@ -208,7 +208,7 @@
     <t>拥有50名弟子</t>
   </si>
   <si>
-    <t>Arms|303|1</t>
+    <t>Armor|702|1</t>
   </si>
 </sst>
 </file>
@@ -217,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +237,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -244,22 +288,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,90 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -364,22 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,61 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,121 +552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +605,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -620,13 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,17 +668,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,49 +702,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,10 +720,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,124 +732,124 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$34</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>任务ID</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Main_BuildBaicaohu|1</t>
+  </si>
+  <si>
+    <t>建造镖局</t>
+  </si>
+  <si>
+    <t>Main_BuildDeliver|1</t>
   </si>
   <si>
     <t>建造2处练功场</t>
@@ -216,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +243,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -245,6 +356,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -260,95 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -356,32 +386,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +402,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,13 +516,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,157 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +617,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +671,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -659,45 +700,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -708,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,145 +732,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,12 +1196,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1574,20 +1589,20 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1595,16 +1610,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1612,16 +1627,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1632,13 +1647,13 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1646,16 +1661,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1663,16 +1678,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1683,13 +1698,13 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1700,13 +1715,13 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1714,16 +1729,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1731,16 +1746,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1748,15 +1763,32 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>50</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="22560"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>任务ID</t>
   </si>
@@ -154,7 +154,7 @@
     <t>拥有20名弟子</t>
   </si>
   <si>
-    <t>Arms202|1</t>
+    <t>Arms|202|1</t>
   </si>
   <si>
     <t>讲武堂升至4级</t>
@@ -222,9 +222,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -243,6 +243,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -251,24 +287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +303,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -288,7 +335,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,47 +372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,37 +386,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -408,19 +408,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,163 +564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,17 +628,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -646,40 +635,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -700,168 +665,203 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -879,55 +879,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1194,27 +1194,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83333333333333" style="2"/>
+    <col min="6" max="16384" width="8.83035714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/MainTask/MainTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/MainTask.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22560"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$D$4:$D$48</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="115">
   <si>
     <t>任务ID</t>
   </si>
@@ -76,24 +76,48 @@
     <t>Main_OwnStudents</t>
   </si>
   <si>
+    <t>锻造屋升至2级</t>
+  </si>
+  <si>
+    <t>Food|10</t>
+  </si>
+  <si>
+    <t>Main_BuildForgeHouse|2</t>
+  </si>
+  <si>
     <t>建造1处练功场</t>
   </si>
   <si>
-    <t>Food|10</t>
-  </si>
-  <si>
     <t>Main_BuildPracticeField|1</t>
   </si>
   <si>
+    <t>锻造屋升至3级</t>
+  </si>
+  <si>
+    <t>Main_BuildForgeHouse|3</t>
+  </si>
+  <si>
     <t>拥有1间2级屋舍</t>
   </si>
   <si>
     <t>Main_BuildLivableRoom|2</t>
   </si>
   <si>
+    <t>锻造屋升至4级</t>
+  </si>
+  <si>
+    <t>Main_BuildForgeHouse|4</t>
+  </si>
+  <si>
     <t>建造3间屋舍</t>
   </si>
   <si>
+    <t>锻造屋升至5级</t>
+  </si>
+  <si>
+    <t>Main_BuildForgeHouse|5</t>
+  </si>
+  <si>
     <t>讲武堂升至2级</t>
   </si>
   <si>
@@ -103,6 +127,12 @@
     <t>Main_BuildLobby</t>
   </si>
   <si>
+    <t>锻造屋升至6级</t>
+  </si>
+  <si>
+    <t>Main_BuildForgeHouse|6</t>
+  </si>
+  <si>
     <t>完成挑战1-1</t>
   </si>
   <si>
@@ -118,21 +148,51 @@
     <t>Main_BuildLibrary|1</t>
   </si>
   <si>
+    <t>拥有1处2级练功场</t>
+  </si>
+  <si>
+    <t>Main_BuildPracticeField|2</t>
+  </si>
+  <si>
     <t>建造4间屋舍</t>
   </si>
   <si>
+    <t>拥有1处3级练功场</t>
+  </si>
+  <si>
+    <t>Main_BuildPracticeField|3</t>
+  </si>
+  <si>
     <t>拥有1间4级屋舍</t>
   </si>
   <si>
     <t>Main_BuildLivableRoom|4</t>
   </si>
   <si>
+    <t>拥有1处4级练功场</t>
+  </si>
+  <si>
+    <t>Main_BuildPracticeField|4</t>
+  </si>
+  <si>
+    <t>拥有1处5级练功场</t>
+  </si>
+  <si>
+    <t>Main_BuildPracticeField|5</t>
+  </si>
+  <si>
     <t>拥有12名弟子</t>
   </si>
   <si>
     <t>Kongfu|3002|1</t>
   </si>
   <si>
+    <t>拥有1处6级练功场</t>
+  </si>
+  <si>
+    <t>Main_BuildPracticeField|6</t>
+  </si>
+  <si>
     <t>讲武堂升至3级</t>
   </si>
   <si>
@@ -142,15 +202,33 @@
     <t>Main_BuildForgeHouse|1</t>
   </si>
   <si>
+    <t>伙房升至2级</t>
+  </si>
+  <si>
     <t>建造5间屋舍</t>
   </si>
   <si>
+    <t>伙房升至3级</t>
+  </si>
+  <si>
     <t>拥有1间5级屋舍</t>
   </si>
   <si>
     <t>Main_BuildLivableRoom|5</t>
   </si>
   <si>
+    <t>伙房升至4级</t>
+  </si>
+  <si>
+    <t>伙房升至5级</t>
+  </si>
+  <si>
+    <t>藏经阁升至2级</t>
+  </si>
+  <si>
+    <t>Main_BuildLibrary|2</t>
+  </si>
+  <si>
     <t>拥有20名弟子</t>
   </si>
   <si>
@@ -160,48 +238,111 @@
     <t>讲武堂升至4级</t>
   </si>
   <si>
+    <t>藏经阁升至3级</t>
+  </si>
+  <si>
+    <t>Main_BuildLibrary|3</t>
+  </si>
+  <si>
     <t>建造百草屋</t>
   </si>
   <si>
     <t>Main_BuildBaicaohu|1</t>
   </si>
   <si>
+    <t>藏经阁升至4级</t>
+  </si>
+  <si>
+    <t>Main_BuildLibrary|4</t>
+  </si>
+  <si>
     <t>建造镖局</t>
   </si>
   <si>
     <t>Main_BuildDeliver|1</t>
   </si>
   <si>
+    <t>藏经阁升至5级</t>
+  </si>
+  <si>
+    <t>Main_BuildLibrary|5</t>
+  </si>
+  <si>
     <t>建造2处练功场</t>
   </si>
   <si>
     <t>建造6间屋舍</t>
   </si>
   <si>
+    <t>百草屋升至2级</t>
+  </si>
+  <si>
+    <t>Main_BuildBaicaohu|2</t>
+  </si>
+  <si>
+    <t>百草屋升至3级</t>
+  </si>
+  <si>
+    <t>Main_BuildBaicaohu|3</t>
+  </si>
+  <si>
     <t>拥有30名弟子</t>
   </si>
   <si>
     <t>Armor|602|1</t>
   </si>
   <si>
+    <t>百草屋升至4级</t>
+  </si>
+  <si>
+    <t>Main_BuildBaicaohu|4</t>
+  </si>
+  <si>
     <t>讲武堂升至5级</t>
   </si>
   <si>
     <t>建造7间屋舍</t>
   </si>
   <si>
+    <t>镖局升至2级</t>
+  </si>
+  <si>
     <t>拥有1间6级屋舍</t>
   </si>
   <si>
     <t>Main_BuildLivableRoom|6</t>
   </si>
   <si>
+    <t>镖局升至3级</t>
+  </si>
+  <si>
+    <t>Main_BuildDeliver|2</t>
+  </si>
+  <si>
+    <t>镖局升至4级</t>
+  </si>
+  <si>
+    <t>Main_BuildDeliver|3</t>
+  </si>
+  <si>
+    <t>仓库升至2级</t>
+  </si>
+  <si>
+    <t>仓库升至3级</t>
+  </si>
+  <si>
+    <t>仓库升至4级</t>
+  </si>
+  <si>
     <t>拥有40名弟子</t>
   </si>
   <si>
     <t>Arms|305|1</t>
   </si>
   <si>
+    <t>仓库升至5级</t>
+  </si>
+  <si>
     <t>讲武堂升至6级</t>
   </si>
   <si>
@@ -215,6 +356,12 @@
   </si>
   <si>
     <t>Armor|702|1</t>
+  </si>
+  <si>
+    <t>讲武堂升至7级</t>
+  </si>
+  <si>
+    <t>讲武堂升至8级</t>
   </si>
 </sst>
 </file>
@@ -222,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,7 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,31 +404,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,17 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +474,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,39 +498,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,6 +526,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -402,7 +549,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,181 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,15 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,17 +788,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,7 +816,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,168 +847,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,58 +1023,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1194,27 +1344,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83035714285714" style="2"/>
+    <col min="6" max="7" width="8.83333333333333" style="2"/>
+    <col min="8" max="8" width="2.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1315,47 +1471,92 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -1366,22 +1567,52 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1389,41 +1620,56 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1434,56 +1680,116 @@
       <c r="E13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1491,70 +1797,97 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1562,13 +1895,22 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1576,84 +1918,144 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2">
-        <v>30</v>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1661,24 +2063,24 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -1687,41 +2089,86 @@
         <v>15</v>
       </c>
       <c r="E28" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1729,24 +2176,24 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -1755,41 +2202,496 @@
         <v>15</v>
       </c>
       <c r="E32" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E39" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
